--- a/backend/data/101.xlsx
+++ b/backend/data/101.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B241"/>
+  <dimension ref="A1:B221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,2880 +448,2640 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>(인사)HK콜마</t>
+          <t>경제주식 토크쇼 ‘경주마’ 첫방송, 김동환 소장 출연</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021.12.28 15:41</t>
+          <t>2021.12.29 17:28</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>야놀자 인터파크 인수 확정, 2940억에 사업 지분 70% 확보</t>
+          <t>쿠팡, 유료회원제 '와우 멤버십' 월 4990원으로 인상</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021.12.28 15:41</t>
+          <t>2021.12.29 17:28</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>코오롱티슈진, 미국서 '인보사' 임상 3상 환자 투약 재개</t>
+          <t>키움증권, 신임 대표이사에 황현순 부사장</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021.12.28 15:41</t>
+          <t>2021.12.29 17:28</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>백신 유효기간 시행…QR 찍고 '띠리링'은 통과, '딩동'은 출입금지</t>
+          <t>2295가구서 올 549건 손바뀜…대체 무슨일이</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021.12.28 15:40</t>
+          <t>2021.12.29 17:28</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[환율마감] 원/달러 환율 1.2원 오른 1188.0원</t>
+          <t>배당락 효과 사라지게 만든 개인 3조 순매수</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021.12.28 15:40</t>
+          <t>2021.12.29 17:28</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>현대카드, '순수 고객' 1000만 명 돌파</t>
+          <t>CU, ‘GET커피’ 뚜껑 종이로 바꾼다…연 100t 플라스틱 저감 기대</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021.12.28 15:40</t>
+          <t>2021.12.29 17:28</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[특징주] 쇼박스, 오징어게임 시즌3 제작 논의 소식에 강세…12%↑</t>
+          <t>증산4·신길2·방학역·쌍문역…도심 개발로 1만가구 공급</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021.12.28 15:40</t>
+          <t>2021.12.29 17:28</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SBS, 티와이홀딩스로 최대주주 변경</t>
+          <t>원주 농산물 도매시장 연말연시 휴장</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2021.12.28 15:40</t>
+          <t>2021.12.29 17:27</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>홍남기 “정치권 정책·성과 지적…사실과 다른 내용 국민께 알려야”</t>
+          <t>신세계 “서울옥션 주식 280억원어치 취득…지분율 4.8%”</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2021.12.28 15:40</t>
+          <t>2021.12.29 17:27</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>코스피, 양도세 회피 매물…기관·외인 쓸어담으며 3천선 회복</t>
+          <t>디자인인포협동조합, 한남대 가족회사 협약</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2021.12.28 15:40</t>
+          <t>2021.12.29 17:27</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[마감시황] 외인·기관 쌍끌이…양대 시장 상승 마감</t>
+          <t>노선 줄여라…대한항공·아시아나 '조건부 합병'</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021.12.28 15:40</t>
+          <t>2021.12.29 17:27</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>대한항공, 세계 최초로 전자 서류 작성 시스템 도입</t>
+          <t>'공공주택' 공약 쏟아지는데…4년후 LH 부채 '200조'</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 17:27</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1~2세대 실손 2700만명 '보험료 폭탄'…4세대 실손 전환 속도날까</t>
+          <t>서울시, 민간 재개발 21곳 선정 이어 공공재개발도 공모</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 17:27</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>쿠팡, 지역 청년 인재 양성·일자리 창출 앞장</t>
+          <t>Kospi falls on profit-taking, Omicron worries</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 17:26</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>올 들어서만 5억 올랐다…전국서 아파트값 가장 많이 오른 곳 봤더니</t>
+          <t>서민·소상공인 2조1000억 부실채권에 원금 최대 70% 감면</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 17:26</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>홍남기 부총리 “설 민생대책 1월초 발표…서민물가 안정 최우선”</t>
+          <t>괴산사랑상품권 올해 230억원어치 팔려…역대 최대치</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 17:26</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>인천공항공사, 취약계층 지원 등 성금 10억 전달</t>
+          <t>남해 야산에 불…인명피해 없고 잔불 정리 중</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 17:26</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>한국ESG경영개발원 창립총회</t>
+          <t>외국인에만 30만원 더…방통위, 통신 3사에 38억 과징금</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 17:26</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>코스피, 20.69p(0.69%) 오른 3020.24, 원/달러 환율 1.2원 오른 1188.00원 마감</t>
+          <t>중견기업이 본 내년 1분기 경기전망 '흐림'</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 17:26</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>야놀자, 2940억원에 인터파크 인수 확정</t>
+          <t>Luxury imports fly off the lot driven by pandemic spending</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 17:25</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>홈플러스, 슛포러브와 백혈병·소아암 어린이 돕는다</t>
+          <t>인천공항공사 '자폐인 디자이너 사회활동 지원' 협약</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 17:25</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>[집중진단] 실손보험 가입자 60%가 청구 ‘0건’인데…내년 대폭인상 소식 ‘분통’</t>
+          <t>중국 AI 개발하고 4조원 번 교수 “또 억만장자 탄생”</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 17:25</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>방통위, 디지털성범죄물 삭제지원 기관·단체 15곳 지정</t>
+          <t>신세계건설, 평택 물류센터 신축공사 1646.7억원 수주</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 17:24</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>'아너스 117', 전체 필지 조기 분양 마감</t>
+          <t>"제2 한강의 기적, 불가능하단 법 있나요"</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 17:24</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>음성 극동대에 뷰티헬스솔루션센터 개소</t>
+          <t>안전기사 못 뽑고, 컨설팅費 수천만원…中企 "중대재해법 자포자기"</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 17:24</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>[스팟] 코스피, 20.69p(0.69%) 오른 3020.24 마감</t>
+          <t>올해 상승률 1위는 ‘위메이드맥스’···1500% 급등한 블록체인 게임개발업체</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 17:23</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>넉달만에 움츠러든 소비심리</t>
+          <t>시큐리티 어워즈 코리아 2021</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 17:23</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>중장기 성장 가능성 점쳐지는 SK바이오사이언스</t>
+          <t>국민은행, 내년부터 우대금리 혜택 부활…전세대출 최대 0.9% 금리인하 효과</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 17:23</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>쿠팡, 군산대와 물류전문가 양성 및 일자리 창출 MOU</t>
+          <t>보금자리론 내년 1월 금리 동결…연 3.0∼3.4%</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 17:23</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>삼성전자·SK하이닉스 상승에 반도체 ETF 웃었다…한달 수익률 8%</t>
+          <t>굿바이 오설록 명동점..올해 끝으로 폐점</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 17:23</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>4개월 만에 '소비심리' 꺾였다</t>
+          <t>메인콘텐츠, 여성가족부 '가족친화인증' 기업 선정</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 17:23</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>소비심리 4개월 만에 하락세 '물가·코로나 탓'</t>
+          <t>시큐리티 어워즈 코리아 2021</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>코스피, 배당락일 앞두고 강보합…3,020.24 마감</t>
+          <t>안양대 스마트시티공학과, 진화 주도하는  가상공간의 미래를 엿보다</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>야놀자, 인터파크 사업부문 인수 작업 마무리</t>
+          <t>장거리 능력 없는 LCC에…대한항공 '알짜노선' 나눠주라는 공정위</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>움츠러든 소비심리</t>
+          <t>손경식 "5인 미만 사업장, 근로기준법 적용 우려"</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>야놀자, 인터파크 품었다…지분 70% 2940억원에 인수</t>
+          <t>'시민 참여' 방역체계 논의 시동…동선 알림앱 검토</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>광주은행, 디지털·해외사업·소비자 보호 역점 조직개편</t>
+          <t>국힘 "윤석열 비방 조직적 댓글 징후"…내일 회견서 공개</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>"인공지능株가 내년 증시 주도"…증권가가 주목한 투자는?</t>
+          <t>쿠팡, 유료회원제 '와우 멤버십' 요금 월 2천900원→4천990원</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>카카오에서 탄생한 '바이브컴퍼니'…디지털트윈 넘어 테크핀까지</t>
+          <t>‘100% 비대면 주담대’ 자신하는 카뱅…시중은행 상품과 차별화 보일까</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>세입자의 눈물…집값 상승 멈추니 뜀박질하는 월세 [부동산360]</t>
+          <t>신세계, 서울옥션에 280억 규모 지분 투자…"예술품 사업 강화"</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 17:21</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>"미래 도시 체험하러 오세요"…미래도시 테마파크 '루카치키' 개관</t>
+          <t>"중대재해 사고 60%, 건설업종에서 발생"</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 17:21</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>"하와이에 휘발유 수출한다"…현대오일뱅크, 석유 완제품 수출계약</t>
+          <t>한샘, 2022년 신학기 맞아 서재·자녀방가구 신제품 출시</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2021.12.28 15:35</t>
+          <t>2021.12.29 17:21</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>"연말 내 택배 어쩌나"…CJ대한통운 총파업에 50만 건 묶여</t>
+          <t>반세기 쇳물 뽑아 韓 제조업 신화…'민족 고로'의 위대한 퇴장</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2021.12.28 15:35</t>
+          <t>2021.12.29 17:21</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>허닭, SBA '서울기업 온택트 채용관' 고용 우수기업 선정</t>
+          <t>‘레드바이오’와 결별한 CJ그룹 다시 돌아오게 만든 ‘마이크로바이옴’의 매력은</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2021.12.28 15:35</t>
+          <t>2021.12.29 17:21</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>이스트스프링자산운용 “내년 저평가된 아시아 시장 주목”</t>
+          <t>돼지고기 온라인 경매 시범 운영…2023년 본격 도입</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2021.12.28 15:35</t>
+          <t>2021.12.29 17:20</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>동남권 4개 철도 정식개통…2024년까지 수도권 2시간대 이동</t>
+          <t>쿠쿠 트윈프레셔, 11월 누적 판매 82% '껑충'</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2021.12.28 15:35</t>
+          <t>2021.12.29 17:20</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>與 정책 '역주행'에 우려 드러낸 홍남기, "정부 성과 정확히 전달 해달라"</t>
+          <t>공정위, SK스퀘어어 지주사 기준 충족 심사결과 통지</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2021.12.28 15:35</t>
+          <t>2021.12.29 17:20</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>[속보] 코스피, 20.69포인트 오른 3020.24에 마감</t>
+          <t>네이버 쇼핑, 일본서 야후재팬과 통합하기로…대만·스페인도 진출</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 17:20</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>[코스피] 20.69p(0.69%) 오른 3020.24 마감</t>
+          <t>한미글로벌, 사회복지법인 ‘따뜻한동행’에 17억원 기부</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 17:20</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>코스닥 16.08P 상승한 1027.44(1.59%↑) 마감</t>
+          <t>문성혁 장관 “HMM 독립 바라지만…아직은 때 아냐”</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 17:20</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>[코스닥] 16.08p(1.59%) 오른 1027.44 마감</t>
+          <t>아시아서 덩치 키우는 머스크…HMM은 '흠…'</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 17:20</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>내달초 '설민생대책' 발표…홍남기 "서민물가 안정 최우선"</t>
+          <t>삼성전자, 中 시안 반도체 사업장 생산 라인 축소</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 17:19</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>코스피 20.69P 상승한 3020.24(0.69%↑) 마감</t>
+          <t>신세계, 미술품 경매사 서울옥션에 280억원 투자…지분율 4.8%(종합)</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 17:18</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>더네이쳐홀딩스, 주당 200원 현금배당…31일 기준</t>
+          <t>HDC현산, 근로자 중심 안전문화 정착…안전경영실 신설</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 17:18</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>코로나 이후 소상공인 매출 월평균 92만원 감소</t>
+          <t>국내 최초 민간과학 로켓 블루웨일0.1 제주 상공을 날다(종합)</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 17:18</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>[코스닥(마감)]전 거래일보다 16.08포인트(1.59%) 오른 1,027.44 마감</t>
+          <t>신세계, 서울옥션 주식 85.7만주 280억원 취득</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 17:18</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>[표]KRX 금 시세(12월 28일)</t>
+          <t>"올해 세계 주식시장 주인공, '개인'"…동학개미는 '갸웃'</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 17:18</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>[코스피(마감)] 전 거래일보다 20.74포인트(0.69%) 오른 3,020.29 마감</t>
+          <t>연 3%, 2억7천까지 빌려준다…토스뱅크 1월1일 11시부터 대출재개</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 17:18</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>[시황]코스피 3020.24(▲0.69%), 코스닥 1027.44(▲1.59%), 원·달러 환율 1188.0원(▲1.2원) 마감</t>
+          <t>CJ 택배 노동자들, 사회적 합의 이행 촉구</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:17</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>정태순 한국해운협회장 "2022년 세계 3대 해운강국 도약 원년 될 것"</t>
+          <t>통신 대란 때 공공 와이파이 활용 가능</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:17</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>[달러/원] 환율 1.2원 오른 1188.0원 마감</t>
+          <t>위중증·오미크론 또 최다…'거리두기 연장 가능성'</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:17</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SSG닷컴 `보복소비`로 골프·명품·호캉스 수요↑</t>
+          <t>A24, 연말 맞아 뷰티제품 최대 50% 할인</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:17</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>야놀자, 인터파크 인수 확정…“글로벌 트래블테크 기업 육성”</t>
+          <t>전문 쇼핑몰 캐시미어 브랜드 ‘칼레이트’, 한컬렉션 매장 입점</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:17</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>청년·신혼부부 매입임대주택 입주자 모집…2318가구 규모</t>
+          <t>오늘의 증시 메모[12월 30일]</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:17</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>[마감]코스피 외국인 4431억 순매수</t>
+          <t>[오후초대석] 코스피, 美 증시에 비해 ‘지지부진’ 이유는?</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:16</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>[마감]코스피 개인 19613억 순매도</t>
+          <t>문성혁 해수부 장관 “올해 해운산업은 트리플 크라운, 국가발전에 일조”</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:16</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>[마감]코스피 기관 15191억 순매수</t>
+          <t>코로나19 사태 2년…“타인과 멀어지고 빚만 늘었다”</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:16</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>[마감]코스피 상승..3020.24(+0.69%)</t>
+          <t>비트코인 폭락설?…"10만불 달성 가능성 높아" [가상자산 투자 판이 바뀐다]</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:15</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>[마감]코스닥 개인 11289억 순매도</t>
+          <t>수수료는 매번 깎으면서...툭하면 카드사 동원</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:15</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>[마감]코스닥 기관 8246억 순매수</t>
+          <t>신한은행, 본부장급 인사…17명 '젊은 인재' 등용</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:15</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>[마감]코스닥 외국인 3179억 순매수</t>
+          <t>넷플릭스 급성장에 유료방송 살리기…'채널개편 수시로'</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:15</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>[마감]코스닥 상승..1027.44(+1.59%)</t>
+          <t>대한항공-아시아나 결합 조건부 승인…경쟁력 약화 불씨 여전</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:14</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>경남은행, 인사 단행…"안정적 영업환경 조성"</t>
+          <t>Samsung SDI launches battery brand PRiMX</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:14</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>은행연합회 상무이사에 박창옥 본부장 임명...신년 인사 단행</t>
+          <t>코로나 팬데믹 속 이혼 사상 최대 감소</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:14</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>환경과학원, 국민 몸속 환경유해물질 "3년 전보다 대부분 감소"</t>
+          <t>한수원 "원전, 초저탄소 에너지원…환경보전에 유리"</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 17:14</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>현대제철, 현대비앤지스틸에 1224억원 규모 자산양도</t>
+          <t>국민은행, 전세자금·주택담보대출 우대금리 최대 0.3%P↑</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 17:14</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>홍남기 "설 민생대책 1월초 발표…서민물가 안정 최우선"</t>
+          <t>건설현장 안전관리 비상..중소건설사 줄도산 우려</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 17:14</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2040년 전국 도시 2시간대 이동한다…5년간 철도·도로 160조 투자</t>
+          <t>수젠텍·제노레이 등 11곳 혁신형 의료기기 기업 선정</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>[표]증시 자금 동향(12월 27일)</t>
+          <t>[기업] 현대글로비스, 中 청두에 철도 운송 회사 설립</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>올해 라이프스타일 선도 아파트 브랜드 'e편한세상' 1위</t>
+          <t>[기업] 토스뱅크, 1월 1일 11시부터 신규 대출 재개</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>소비자원 “마스크 가드 10개 중 8개 방역효과 떨어뜨려”</t>
+          <t>[기업] LG전자, 전국에 무인매장 10곳 더 늘린다</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>야놀자, 인터파크 사업부문 2940억원에 인수 확정…"여가 사업 확장"</t>
+          <t>[기업] 기아 EV6, 독일 3대 자동차 전문지 잇달아 호평</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>축사하는 권칠승 장관</t>
+          <t>2022 글로벌 선거 다 모았다…증시 흔들 정치 이슈 [김보미의 뉴스카페]</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>포르쉐, WEC 하이퍼카 클래스에 출전할 레이스카 일부 공개</t>
+          <t>"구리 값 내년에 더 오른다"…질주하는 대창·이구·서원</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>교보생명 IPO 청신호… 풋옵션 가처분 취소 소송서 승리</t>
+          <t>아진피앤피 "골판지 상자 무게 확 줄일 것"</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>[인사] 은행연합회</t>
+          <t>미술품에 꽂힌 신세계 정유경...서울옥션에 280억 지분 투자</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>[마감]환율 상승..1188.0(+1.2원)</t>
+          <t>홍원학 신임 삼성화재 사장 자사주 1500주 매입</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>제26회 중소벤처기업 금융지원 시상식</t>
+          <t>300만불 이하 해외투자자 내년부터 사업보고서 안낸다</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>홍남기 "내년 1월 설 민생안정대책 발표"</t>
+          <t>[초점] 실손보험 문제는 '비급여'…손보사 4세대 전환 '안간힘'</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>[게시판] 소상공인연합회. 국회의원 12명에 '초정대상' 시상</t>
+          <t>‘토지70% 확보’ 조건에 소송까지…암초 만난 도심복합사업</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>새해 앞두고 '결심상품' 매출 증가</t>
+          <t>마이크로디지탈, 코로나항체키트 35.6억원 공급계약</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>새해 결심상품 '특수'</t>
+          <t>문성혁 “HMM 매각은 아직 때 아냐…잘 키워 독립시킬 날 빨리오길”</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>"왜 떨어졌는지 납득 안돼"…재개발 후보지 선정 '희비 교차'</t>
+          <t>`희토류` 무기화하는 중국…주목해야 할 투자 아이디어 [김보미의 뉴스카페]</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>새해에는 다이어트를</t>
+          <t>"외주제작 프로그램 저작권 70% 이상 방송사가 소유"</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>'결심상품' 관심 증가</t>
+          <t>투자자 60% "내년 증시 상승"…"해외투자 비중 확대" [2022 증시전망 - 투자자 천명 설문]</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>홍남기 "내년 주택가격 안정…설민생대책 1월초 발표"</t>
+          <t>'내부 비리 폭로' 최혁진 보훈공단 이사, 공단 관계자 고소</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>캠코, 내년부터 채무자 연체이자 감면·상환 유예 지원</t>
+          <t>신세계, 서울옥션에 280억 투자 "미술품 사업 강화"</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>새해 '결심상품' 건강·홈트 열풍</t>
+          <t>코스피, 배당락 영향에 3000 아래로…코스닥은 1020선 방어</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>야놀자, 인터파크 인수 확정…글로벌 트래블테크 기업 목표</t>
+          <t>"정우성 믿었는데"···'고요의 바다' 개미의 눈물</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>야놀자, 인터파크 인수 확정…사업부문 지분 70%, 2940억원에 인수</t>
+          <t>피엘라벤코리아 ‘2022년 클래식 코리아’ 사전 답사 마쳐</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>[인사] BNK경남은행</t>
+          <t>중국 시안 ‘봉쇄’ 일주일째… 삼성전자 반도체 생산 줄인다</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>혁신 '메기'의 배신…빅테크 전방위 규제 본격화(종합)</t>
+          <t>평사원 입사 30년 만에 사장 등극…역대 최대매출 올린 이 남자</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>새해 결심상품 매출 '껑충'</t>
+          <t>“OLED가 새로운 ‘경험’ 된다”…LG디스플레이, 차세대 TV 패널 공개</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>전국 지하 철도시설물 레이더로 탐사한다…지반침하 사고 예방</t>
+          <t>'사명' 바꾼 두올물산 "바이오 집중"…합병에 달렸다</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>인보사 부활 신호탄…코오롱티슈진, 3상 임상 투약 재개</t>
+          <t>중견기업 경기전망 2분기 연속 하락···식음료 제외 대부분 업종 하락세</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>올해 통신분쟁 조정신청 KT가 가장 많았다</t>
+          <t>CJ대한통운 택배노조 파업 이틀째…노원 등 일부 지역 택배발송 중단</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:11</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>KB국민카드, 'KB국민 소노시즌2 카드' 출시</t>
+          <t>대한항공·아시아나 결합 ‘조건부 승인’…“슬롯 반납, 운수권 재배분”</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:11</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>이지네트웍스-남부안농협, '농촌사랑 컴퓨터 나눔' 기증행사</t>
+          <t>세스코, 바이러스 케어 시장 공략</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:11</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>부천대장·고양창릉 1.7만가구 사전청약..분양가 84㎡ 6.7억</t>
+          <t>중진공 '넥스트 유니콘'에 헬스케어 벤처 등 4곳</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:11</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>NH농협은행, 중소벤처기업 금융지원 대통령 표창 수상</t>
+          <t>롯데백화점서 열린 체험형 전시 ‘어벤져스 스테이션’ 주목 받아 특별 갈라쇼 진행</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:11</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>코로나19 여파속 소상공인 사업체↑ 매출·영업이익↓</t>
+          <t>국민은행도 우대금리 복구…주담대·전세대출 금리 낮아진다</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:11</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>중견주택업체, 다음달에도 분양 ‘한파’ 계속</t>
+          <t>[영상뉴스] 포항제철 1고로·호남화력 역사 속으로…반세기 임무 마치고 퇴역</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:10</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>은행연합회, 박창옥 상무이사 선임...부서장 인사 시행</t>
+          <t>홍원학 신임 삼성화재 사장 자사주 매입…"책임경영 의지"</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:10</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>휴온스바이오파마, 보툴리눔 톡신 ‘HU-045’ 미간주름 임상 2상 승인</t>
+          <t>"중국 물가압력, 생활용품·식료품부터 한국 전이"</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:10</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>네이버, 물류·라이브커머스 등 기술지원으로 소상공인 성장 도와</t>
+          <t>"아직도 부족하다"…중국, 리튬 확보 전쟁 연말까지 이어진다</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:10</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>SPC그룹, 2021년도 임직원 헌혈 송년회 진행</t>
+          <t>"살고 싶습니다"…끝나지 않는 코로나, 동네가게가 사라진다</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:09</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>삼성 한종희·경계현·고동진, KT 구현모 대표, 공학한림원 정회원 됐다</t>
+          <t>"김프 투자용 우려"…NH농협카드도 1인당 해외인출 한도 도입</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:09</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2021 올해의 디지털 뉴딜 우수사례 시상식</t>
+          <t>교육교부금 3배 늘 때 학령인구 45%↓...KDI "전면개편해야"</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2021.12.28 15:26</t>
+          <t>2021.12.29 17:09</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>코로나19 충격… 소상공인 87만명 줄고 영업이익 반토막</t>
+          <t>[인사]신한은행</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2021.12.28 15:26</t>
+          <t>2021.12.29 17:09</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>농협은행, 중소벤처기업 금융지원 대통령 표창 수상</t>
+          <t>문성혁 “황금알 낳는 거위, HMM 매각은 아직 때 아니다”</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2021.12.28 15:26</t>
+          <t>2021.12.29 17:09</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>인터파크, 전자상거래 사업부문 물적분할 결정</t>
+          <t>삼성, 中시안 반도체 사업장 가동률 낮춰…낸드 업황 영향주나(종합2보)</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2021.12.28 15:26</t>
+          <t>2021.12.29 17:09</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>CES 2022 삼성·현대·SK 총 출동…한국 대기업이 보여줄 핵심 키워드는?</t>
+          <t>중소기업 절반 가까이 "올해 자금 사정 악화"</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2021.12.28 15:26</t>
+          <t>2021.12.29 17:09</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>4개월만에 꺾인 소비 심리…집값 전망 1년 7개월만에 최저</t>
+          <t>대성학원, 2023학년도 N수생을 위한 현장 설명회 진행</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:08</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>“부사장車는 G90” 삼성 인사개편에 현대차 ‘함박웃음’</t>
+          <t>광양제철소, '포스튜브 경진대회' 성과물 공유 활성화</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:08</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>1300만명 봉쇄령 中 시안…삼성 반도체, 사태 장기화 촉각</t>
+          <t>삼성엔지니어링, 삼성전자 평택공장 공사 3300억원 수주</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>실손 청구 전산화 해 넘긴다…보험 입법 공백(종합)</t>
+          <t>배당락일, 삼천피 또 무너졌다…전문가 "연초 변동성 대비해야"</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>성신양회, 탄소포집 기술 개발 국책과제 선정…2025년까지 390억 투입</t>
+          <t>대한항공-아시아나 통합, 소비자 피해 막을 ‘묘수’ 못찾은 채 전원회의 상정</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>[특징주] '고요의 바다' 엇갈린 반응 속...버킷스튜디오 +3.26%↑</t>
+          <t>KB저축은행, 수십억원 횡령 사고 발생…"해당 직원 수사 중"</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>전기료·가스 요금, 대선 이후 다 오른다…한국전력·한국가스공사 주가 강세</t>
+          <t>국토부·서울시, 30일부터 공공재개발 후보지 2차 공모</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>대한항공, 고객 작성서류 '전면 디지털화'... 전세계 항공사 최초</t>
+          <t>Social distancing rules influencing behavior less</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:06</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>쌀 27만 톤 정부 매입</t>
+          <t>공주대 김광훈 교수, 해양수산과학기술대상 우수상</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:06</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>당정 '쌀 27만 톤 전량 수매'</t>
+          <t>"충분히 팔았다"던 머스크, 테슬라 또 팔았다…한번 더?</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:06</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>'쌀값 하락 막는다'</t>
+          <t>레고·바비인형…완구에 푹빠진 '어른이'들</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:06</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>당정 '초과생산 쌀 27만 톤 시장격리'</t>
+          <t>헬릭스미스 구원투수 박영주 "실패분석 끝…3상 성공 올인"</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:06</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>당정 '쌀 시장 안정위해 27만 톤 시장격리</t>
+          <t>현대건설, '힐스테이트 평택 더퍼스트' 분양</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:06</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>쌀 27만 톤 정부 매입</t>
+          <t>'호랑이띠 동갑' 삼성 한종희·LG 조주완, 미래 먹거리 발굴 집중</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:06</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>당정 '쌀 27만 톤 전량 수매'</t>
+          <t>정윤석 신일전자 사장 승진</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:06</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>'과잉 공급 쌀 27만 톤 시장격리'</t>
+          <t>"통신3사 28㎓ 5G기지국 연말까지 4.5만개 구축 목표 이행률 1%도 안돼"</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:05</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>당정 '쌀 시장 안정위해 27만 톤 시장격리</t>
+          <t>인천공항공사 ‘자폐인 디자이너 사회활동 지원사업 협약식'</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:05</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>당정 '초과생산 쌀 27만 톤 전량 매입'</t>
+          <t>'사랑나눔' 생활공작소·엠마…생활용품·매트리스 등 기부</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:05</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>당정 '초과생산 쌀 27만 톤 전량 매입'</t>
+          <t>인천공항공사, ‘자폐인 디자이너 사회활동 지원’ 나서</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:05</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>당정 '쌀 27만 톤 전량 수매'</t>
+          <t>[포토] 이런 사진관 어떤가요</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:05</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>쌀 27만 톤 정부 매입</t>
+          <t>[표]유형별 펀드 자금 동향(12월 28일)</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:05</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>'쌀값 하락 막는다'</t>
+          <t>[인사] 신한은행</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:05</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>당정 '쌀 27만 톤 전량 수매'</t>
+          <t>한진家, 6억원대 양도세 취소소송 항소심도 패소</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:05</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>쌀 27만 톤 정부 매입</t>
+          <t>[공모주 투자노트] 게임 넘어 메타버스로…국책과제도 잇따라 수행</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:05</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>인사말 하는 조경식 과기정통부 2차관</t>
+          <t>K-메타버스 ETF 순자산 5천억 돌파</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:05</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>조경식 2차관, '올해의 디지털 뉴딜 우수사례 시상식'</t>
+          <t>남부발전, 2045년 화력발전 무탄소 에너지 전환 선언</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:05</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>골프예능 방송 직후 난리난 유현주 프로가 입은 그 옷은</t>
+          <t>[인사] 광주은행</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:04</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>내년 가상자산 상속·증여, 당일 전후 한 달간 평균가격으로 신고·납부해야</t>
+          <t>금감원, 2011~2014년 회계감리 지적 사례 27건 추가 공개</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:04</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>[경제계 인사]BNK금융지주 外</t>
+          <t>“친환경·미래먹거리 발굴” SPC삼립 ESG상생경영 박차</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:04</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>현대건설, 힐스테이트 아파트 인테리어 디자인 새단장</t>
+          <t>[표] 주요 증시 지표 (12월 29일)</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2021.12.28 15:22</t>
+          <t>2021.12.29 17:04</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>애경케미칼, '이웃사랑 물품 나눔 행사'... 취약계층에 '전기 장판 715세트' 전달</t>
+          <t>마이크로디지탈, 35억 규모 코로나 대용량 항체진단키트 공급 계약</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2021.12.28 15:22</t>
+          <t>2021.12.29 17:03</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>도화엔지니어링, 760억원 규모 日 태양광발전소 건설공사 2건 수주</t>
+          <t>마이크로디지탈, 170억 규모 코로나 진단키트 공급계약 해지</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2021.12.28 15:22</t>
+          <t>2021.12.29 17:03</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>격변의 전자담배 시장… KT&amp;G;, '원조' 제치고 1위 오르나</t>
+          <t>[ IBK창공 '씨엔티테크' 육성기업 단신 ] 팟캐스트 '나이비'·웹 메타버스 '넷스트림'</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2021.12.28 15:22</t>
+          <t>2021.12.29 17:03</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>[인사] JB금융그룹 전북은행</t>
+          <t>코스피, 약보합으로 거래 마감‥통신·금융주 하락세</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2021.12.28 15:22</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>광주은행, 부행장보 4명 내부 발탁…"성장동력 강화"</t>
+          <t>[산업 디지털 전환 정책 성과]산업 디지털 전환 법 근거 마련…후속 이행계획 속도</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2021.12.28 15:22</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>현대제철, 현대비앤지스틸에 스테인리스 사업부 자산 양도</t>
+          <t>"공정위 심사 지연에"…대한항공, 아시아나 합병 세번째 정정공시</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2021.12.28 15:22</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>국내 기업 85% “플라스틱 폐기물 문제 해결 동참 의향 있다”</t>
+          <t>[산업 디지털 전환 정책 성과]기업 맞춤형 디지털 전환 과제 발굴하고, 맞춤형 컨설팅 성과</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2021.12.28 15:22</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>키프라임리서치, 국내 유일 민간 '영장류 연구센터' 착공</t>
+          <t>[산업 디지털 전환 정책 성과]김상모 산업기술융합정책관 "내년 산업 디지털 전환 '붐' 조성할 것"</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2021.12.28 15:21</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>아마존 입점 성공 비결은…"철저하게 미국다운 제품 승부수"</t>
+          <t>300만불 이하 해외투자자, 연간사업보고서 안 낸다</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2021.12.28 15:21</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>코로나19 속에도…지난해 소상공인 사업체 13만개 증가</t>
+          <t>[人사이트]권이균 K-CCUS 추진단장 "성공적인 CCUS 생태계 만들겠다"</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2021.12.28 15:21</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>소상공인 온라인 판로 지원  현대차 ‘기프트카 ’ 캠페인</t>
+          <t>중국 생산자물가, 한국 소비자물가 밀어올려</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2021.12.28 15:21</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>원-위안 직거래 시장 시장조성자 우리은행 등 11개 선정</t>
+          <t>애경산업 ‘사랑과 존경의 연탄 나눔’ 전달식</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2021.12.28 15:21</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>휠라, 당일 배송 '오늘도착' 서비스 개시</t>
+          <t>신한금융, 지배구조 투명성 강화…준법경영·부패방지경영 '동시 인증'</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2021.12.28 15:21</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>정부, 내년 탄소중립 기술투자 두 배 늘린다</t>
+          <t>[인사]신일전자, 정윤석 대표이사 사장 승진</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>2021.12.28 15:21</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t xml:space="preserve">이산화탄소를 메탄올로…성신양회 ‘탄소자원화’ 시동　　</t>
+          <t>1월 보금자리론 금리 동결···최저 연 3%</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2021.12.28 15:21</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>'백신의 시대'… 차백신연구소,면역증강제 기술 부각</t>
+          <t>[인사]신한은행</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2021.12.28 15:20</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>[fn마켓워치]신한벤처·DS·휴맥스, 디지털 외식 '먼키'에 230억 투자</t>
+          <t>[인사] 홈플러스</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>2021.12.28 15:20</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>의생명기업 케이엠지, 부산에서 김해로 본사·공장 이전</t>
+          <t>국민은행도 대출 우대금리 부활…최대 0.3%p 확대</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2021.12.28 15:19</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>은행연합회, 상무이사에 박창옥 본부장 선임</t>
+          <t>우리은행 이어 KB국민은행도 우대금리 높여…최대 0.3%p↑</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2021.12.28 15:19</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>에일리·이무진·우지원까지...'방구석 콘서트'에 빠진 그들</t>
+          <t>국내 인구이동 11개월째↓…서울서 21개월 연속 유출</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2021.12.28 15:19</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>‘최고령 석탄발전’ 호남화력발전소, 반세기 만에 퇴역한다</t>
+          <t>SK가 전파하는 '선한 영향력'.... 사회적기업 판로 열고 날개 달아준다 [사회적가치 실현하는 기업]</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>2021.12.28 15:19</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>날개 단 K-푸드…"농수산식품 올 수출액 114억달러 전망"</t>
+          <t>삼성전자, 배당락에 다시 ‘7만전자’로 하락…기관 대량 매도</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2021.12.28 15:19</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>DB손해보험, 사랑의열매에 10억 기부…"코로나19 대응 지원"</t>
+          <t>'K건설기계' 중국 의존도 낮아져…북미·신흥시장 수출 '성공적'</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2021.12.28 15:18</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>지난해 소상공인 87만명 줄고 부채금액은 47.7조 늘어</t>
+          <t>금감원 "온라인게임 요금채권, 회원 연령별로 대손충당금 쌓아야"</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2021.12.28 15:18</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>광주은행 부행장보 4명 발탁 인사…조직개편</t>
+          <t>신임 서금원장·신복위원장에 이재연 금융연구원 부원장 내정</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2021.12.28 15:18</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>권광석 우리은행장 은탑산업훈장…중소벤처기업 금융지원 시상식</t>
+          <t>오미크론 유입 막자… 싱가포르발 항공권 신규판매도 일시 중단</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>2021.12.28 15:18</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>‘토스’ 운영사 비바리퍼블리카, 내년 상반기 8번째 투자 유치…기업가치 23조 vs 상장 전 고평가</t>
+          <t>하나금융그룹, MSCI ESG 평가 A등급 획득…1단계 향상</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>2021.12.28 15:18</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>ADB "전 세계 송금액 올해 40조원 증가 전망"</t>
+          <t>봉쇄 일주일 만에…삼성전자, 결국 中시안 반도체 '감산'(종합)</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2021.12.28 15:17</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>윌링스, 영광 태양광 발전소에 326억 EPC 공급</t>
+          <t>HDC아이파크몰, 친환경 쇼핑몰 구현</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>2021.12.28 15:17</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>고준위방사성 폐기물 관리…이재명 "뾰족한 수 없어…떠안고 살아야"</t>
+          <t>우리은행, 삼성물산 에버랜드와 맞손…생태계 보호</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>2021.12.28 15:17</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>민간의 과감한 도전 유도…산업데이터 보호 및 활용 촉진 기반 마련</t>
+          <t>디지털 소상공인 6만명 육성..."배달수수료도 지원"</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2021.12.28 15:17</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>개회사하는 오세희 소상공인연합회장</t>
+          <t>“흑호 기운 듬뿍”… 새해 맞이 ‘호랑이 먹거리’ 쏟아진다</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>2021.12.28 15:16</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>개회사하는 오세희 소상공인연합회장</t>
+          <t>오용수 방송진흥정책국장, 유료방송업계 상생협의체 개최 관련 브리핑</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2021.12.28 15:16</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>개회사하는 오세희 소상공인연합회장</t>
+          <t>오용수 방송진흥정책국장, 유료방송업계 상생협의체 개최 관련 브리핑</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2021.12.28 15:16</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>'소상공인연합회 2021 초정대상 시상식'</t>
+          <t>오용수 방송진흥정책국장, 유료방송업계 상생협의체 개최 관련 브리핑</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>2021.12.28 15:16</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>'소상공인연합회 2021 초정대상 시상식'</t>
+          <t>오용수 방송진흥정책국장, 유료방송업계 상생협의체 개최 관련 브리핑</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>2021.12.28 15:16</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>초정대상 수상자 김두관 의원</t>
+          <t>오용수 방송진흥정책국장, 유료방송업계 상생협의체 개최 관련 브리핑</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2021.12.28 15:16</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>초정대상 수상자 김두관 의원</t>
+          <t>오용수 방송진흥정책국장, 유료방송업계 상생협의체 개최 관련 브리핑</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>2021.12.28 15:16</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>초정대상 수상자 류호정 의원</t>
+          <t>과기부, 유료방송업계 상생협의체 개최 관련 브리핑</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>2021.12.28 15:16</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>'소상공인연합회 2021 초정대상 시상식'</t>
+          <t>과기부, 유료방송업계 상생협의체 개최 관련 브리핑</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>2021.12.28 15:16</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>초정대상 수상자 류호정 의원</t>
+          <t>과기부, 유료방송업계 상생협의체 개최 관련 브리핑</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2021.12.28 15:16</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>기업은행, 혁신기술 테스트베드 3기 참여기업 8곳 선정</t>
+          <t>오용수 과기부 방송진흥정책국장, 유로방송업계 상생협의체 브리핑</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2021.12.28 15:16</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>충남 가로림만에 저수온 주의보 발령</t>
+          <t>과기부, 유료방송업계 상생협의체 개최 관련 브리핑</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2021.12.28 15:16</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>[올댓차이나] '디폴트' 헝다집단, 달러채 이자 2건 지급기한 맞아</t>
+          <t>쿠팡 와우멤버십 月 4990원으로</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>2021.12.28 15:16</t>
+          <t>2021.12.29 16:59</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>세븐일레븐, '생명 나눔 헌혈 캠페인' 진행</t>
+          <t>"브랜드 의류 저렴하게 장만하세요"… 새해맞이 겨울옷 70% 할인</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>2021.12.28 15:16</t>
+          <t>2021.12.29 16:59</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>막오른 4차 사전청약…서울 대방 7.2억·고양 창릉 6.7억</t>
+          <t>광고모델 '로지'·쇼호스트 '루시'… 가상인간 활동영역 넓힌다</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>2021.12.28 15:16</t>
+          <t>2021.12.29 16:59</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>기업은행 ‘IBK 퍼스트랩’ 3기 참여기업 8곳 선정</t>
+          <t>거리두기 강화에 '체험 공간' 승부수… 유통가 전략 재정비</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>2021.12.28 15:16</t>
+          <t>2021.12.29 16:59</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>은행연합회 본부장·부서장 인사…"ESG 확산·디지털 전환 등 현안 대응"</t>
+          <t>에르메스 vs 테슬라... 명품株에 꽂힌 30대 여성들, 수익률 봤더니</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>2021.12.28 15:16</t>
+          <t>2021.12.29 16:59</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>원‧위안 직거래시장 시장조성자에 국민은행 등 11곳 선정</t>
+          <t>심부름 앱 '해주세요' 헬퍼, 월 500만원 벌었다…최다 수익</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>2021.12.28 15:16</t>
+          <t>2021.12.29 16:58</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>부산~울산 30분대 출퇴근 가능…비수도권 첫 광역전철 운행 시작</t>
+          <t>조달청 혁신제품에 대구경북 3개사 제품 지정</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>2021.12.28 15:16</t>
+          <t>2021.12.29 16:58</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>세진중공업, 한국석유공사와 울산 남항사업 MOU체결</t>
+          <t>[인사] 신한은행, 본부장 인사 단행</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2021.12.28 15:16</t>
+          <t>2021.12.29 16:58</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>한화디펜스, 화생방정찰차 후속양산 등 6877억원 규모 공급계약</t>
+          <t>문성혁 “HMM 팔 때 아냐... 빚 다 갚을 때 시장평가 달라질 것”</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>2021.12.28 15:15</t>
+          <t>2021.12.29 16:58</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>미래에셋의 해외영토 확장.. 연말 3000억원 넘어서나</t>
+          <t>강원에너지, 스웨덴 회사와 114억원 패키지 계약</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>2021.12.28 15:15</t>
+          <t>2021.12.29 16:57</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>유튜브부터 마이데이터까지...리테일 확대하는 증권사</t>
+          <t>10월 출생아 '역대 최저' 2.1만명…올해 인구 3.3만명 감소</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>2021.12.28 15:15</t>
+          <t>2021.12.29 16:57</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>대선주자 주식시장 공약...증권가 평가는</t>
+          <t>하루만에 3조 되사들인 동학개미..."넉달만에 최대 규모"</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>2021.12.28 15:15</t>
+          <t>2021.12.29 16:57</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>롯데, 사회적 약자 위해 70억 쾌척</t>
+          <t>[인사]홈플러스</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>2021.12.28 15:15</t>
+          <t>2021.12.29 16:57</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>예탁결제원, 부산 민관합동 코워킹스페이스 오픈 기념식 개최</t>
+          <t>아마존·AT&amp;T;·GM·비자…배런스가 추천한 내년 美 유망 주식 10선</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>2021.12.28 15:15</t>
+          <t>2021.12.29 16:57</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>[인사] 건설공제조합</t>
+          <t>[표]코스피200지수 옵션 시세(12월 29일)</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>2021.12.28 15:14</t>
+          <t>2021.12.29 16:57</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>은행연합회 박창옥 상무 승진... 정기 인사 단행</t>
+          <t>[신상품라운지]'규소수' 등장…조윈, '시오200 플러스' 출시</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>2021.12.28 15:14</t>
+          <t>2021.12.29 16:56</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>中 재정·금융당국, 내년 186조원+α 감세·유동성 공급 '경기부양'</t>
+          <t>10월 출생아 2만1천명 '역대 최저'…인구 24개월째 자연감소</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>2021.12.28 15:14</t>
+          <t>2021.12.29 16:56</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>코로나19에 소상공인 영업이익 '반토막'…매출도 90만원↓</t>
+          <t>교역조건, 8년8개월만에 가장 나빠져…"수입금액이 수출금액 넘어선 영향"</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>2021.12.28 15:14</t>
+          <t>2021.12.29 16:56</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>부진한 자동차 시장, 전기차로 살아날까</t>
+          <t>배당락일 주가 2990선 후퇴…고배당 금융주 '급락'</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2021.12.28 15:14</t>
+          <t>2021.12.29 16:56</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>탄소중립으로 아낀 에너지 절감액으로 이웃 돕는 김해시민</t>
+          <t>금융위, 신임 신용회복위원장에 이재연 금융연구원 부원장 내정</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>2021.12.28 15:13</t>
+          <t>2021.12.29 16:56</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>'방송사 간 소유제한 폐지' 시행령 개정 입법예고</t>
+          <t>유암코-IBK, 디알모빌리티에 400억 투자</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>2021.12.28 15:13</t>
+          <t>2021.12.29 16:56</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>농협, 계약재배 51명에 채소가격안정제 등 15억6천만 원 지원</t>
+          <t>얼어붙은 기업 자금조달 시장… 크레딧 스프레드 올들어 최대</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>2021.12.28 15:13</t>
+          <t>2021.12.29 16:56</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>마스크 가드, 차단 효과 떨어지고 유해물질까지</t>
+          <t>KB證 조직개편 단행... WM·IB·디지털 강화</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>2021.12.28 15:13</t>
+          <t>2021.12.29 16:56</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>폴라리스오피스, 블록체인 사업 국내 첫 S2E</t>
+          <t>금감원, 2011∼2014년 감리 지적사례 회계포탈에 공개</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>2021.12.28 15:12</t>
+          <t>2021.12.29 16:56</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>참여연대 "이통3사, 10년간 LTE 사업 18조6000억원 수익···'반값 요금' 실현해야"</t>
+          <t>삼성효과 기대 '아산 탕정 월드메르디앙 웰리지' 1월 분양</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>2021.12.28 15:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>‘오징어게임’ 시즌3도 제작 추진…황동혁 감독 “논의 중”</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>글로벌 제조강국·경제안보 실현, 수출 7000억 달러 도전</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>대기업 공익법인, 일정 규모 내부 거래시 공시 의무화...30일 시행</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>"영산강 수질악화는 광주 제1하수처리장 방류수 탓"</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>택배기사 1700명 무기한 총파업 돌입…"배송 못한 상자들 쌓여"</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>[인사]건설공제조합</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>화이자 먹는 치료제 1차 2만명분 도입…충분할까</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>토스증권, ‘미성년자 비대면 주식 계좌 개설’ 결국 잠정 중단</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>경기 부정적 전망…충북 소비자심리지수 100.5, 전월 比↓</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>강원도, 올해 18개 기업·3조원 투자 유치</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>마켓컬리, 연말 선물하기 1위는?…'홈파티용 바비큐'</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>양재역 일대, 의료특구·AI 혁신지구 호재로 '몸값' 오른다</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>'달서 롯데캐슬 센트럴스카이' 오피스텔 경쟁률 평균 40대 1…아파트 내달 5일 1순위 해당지역 청약</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>광주은행, '디지털', '글로벌' 방점 조직개편 실시</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>"공급망 축소 우려, 디커플링 당분간 지속" [한미증시 디커플링]</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>삼성전자, CES 2022에 C랩 전시관 운영</t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>연기금, 올해 삼성전자 팔고 사들인 주식은?</t>
-        </is>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>[제24회 상호 존중하는 좋은경영대상] '보톡스 1위' 휴젤, 기업문화 개선 노력 박차</t>
-        </is>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>오미크론으로 꺽인 소비심리··· 4개월 만에 하락</t>
-        </is>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>민주당 구미시의원 4명 "대구취수원 이전 정치적으로 이용말라" 촉구</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:08</t>
+          <t>2021.12.29 16:56</t>
         </is>
       </c>
     </row>

--- a/backend/data/101.xlsx
+++ b/backend/data/101.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B221"/>
+  <dimension ref="A1:B181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,2640 +448,2160 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>경제주식 토크쇼 ‘경주마’ 첫방송, 김동환 소장 출연</t>
+          <t>"MZ세대들이 좋아해요"···LG, 무인매장 19곳으로 확대</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021.12.29 17:28</t>
+          <t>2021.12.29 18:32</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>쿠팡, 유료회원제 '와우 멤버십' 월 4990원으로 인상</t>
+          <t>벅스, 구독자 1,740만 유튜버 '제이플라' 소속사에 전략적 투자</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021.12.29 17:28</t>
+          <t>2021.12.29 18:32</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>키움증권, 신임 대표이사에 황현순 부사장</t>
+          <t>국민연금-금투협, 기금운용 인력양성 손 잡았다</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021.12.29 17:28</t>
+          <t>2021.12.29 18:32</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2295가구서 올 549건 손바뀜…대체 무슨일이</t>
+          <t>문성혁 장관 “2030엑스포 부지 ‘북항 2단계’ 예타 내년 6월 완료”</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021.12.29 17:28</t>
+          <t>2021.12.29 18:31</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>배당락 효과 사라지게 만든 개인 3조 순매수</t>
+          <t>'에르메스백' 얼굴한번 보겠다고…그릇·담요 4000만원 사재기 왜</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021.12.29 17:28</t>
+          <t>2021.12.29 18:30</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CU, ‘GET커피’ 뚜껑 종이로 바꾼다…연 100t 플라스틱 저감 기대</t>
+          <t>출점제한 3년 더...편의점 점주 쟁탈전 펼쳐진다</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021.12.29 17:28</t>
+          <t>2021.12.29 18:30</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>증산4·신길2·방학역·쌍문역…도심 개발로 1만가구 공급</t>
+          <t>대한항공 "아시아나 지분인수 기한, 내달 3월말로 한번 더 연장"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021.12.29 17:28</t>
+          <t>2021.12.29 18:30</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>원주 농산물 도매시장 연말연시 휴장</t>
+          <t>감옥 갈수도…중대재해법, 산업 현장에 '시한폭탄'</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2021.12.29 17:27</t>
+          <t>2021.12.29 18:30</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>신세계 “서울옥션 주식 280억원어치 취득…지분율 4.8%”</t>
+          <t>전력망만 30.5조 추가 투입···탄소중립 급발진에 허리휜다</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2021.12.29 17:27</t>
+          <t>2021.12.29 18:30</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>디자인인포협동조합, 한남대 가족회사 협약</t>
+          <t>'인터넷·IPTV 과도한 위약금' KT 23억 과징금…미환급분 문제도</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2021.12.29 17:27</t>
+          <t>2021.12.29 18:29</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>노선 줄여라…대한항공·아시아나 '조건부 합병'</t>
+          <t>상가조합원 재건축 분담금 줄어든다…재초환법 법안소위 통과</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021.12.29 17:27</t>
+          <t>2021.12.29 18:29</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>'공공주택' 공약 쏟아지는데…4년후 LH 부채 '200조'</t>
+          <t>사회적기업 500곳 신규인증…3200곳서 6.2만명 고용</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021.12.29 17:27</t>
+          <t>2021.12.29 18:28</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>서울시, 민간 재개발 21곳 선정 이어 공공재개발도 공모</t>
+          <t>65세 이상 노인 47% 공적연금 수령…월 60만원 수준</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021.12.29 17:27</t>
+          <t>2021.12.29 18:28</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Kospi falls on profit-taking, Omicron worries</t>
+          <t>새해 1월3일 증시, 오전 10시에 개장</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021.12.29 17:26</t>
+          <t>2021.12.29 18:28</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>서민·소상공인 2조1000억 부실채권에 원금 최대 70% 감면</t>
+          <t>CJ CGV, 美 법인 주식 83억원 규모 취득.."운영 자금 조달"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021.12.29 17:26</t>
+          <t>2021.12.29 18:28</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>괴산사랑상품권 올해 230억원어치 팔려…역대 최대치</t>
+          <t>문승욱 "6번째 상생형 지역일자리는 구미형 일자리"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021.12.29 17:26</t>
+          <t>2021.12.29 18:28</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>남해 야산에 불…인명피해 없고 잔불 정리 중</t>
+          <t>코로나 시대 아프리카 지역 ODA 사업성과 학술발표 및 논문 출간</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021.12.29 17:26</t>
+          <t>2021.12.29 18:27</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>외국인에만 30만원 더…방통위, 통신 3사에 38억 과징금</t>
+          <t>홍원학 삼성화재 사장, 자사주 1500주 매입…"책임경영 의지 표현"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2021.12.29 17:26</t>
+          <t>2021.12.29 18:27</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>중견기업이 본 내년 1분기 경기전망 '흐림'</t>
+          <t>하나금융투자 조직개편 단행…자산관리·디지털 확대</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2021.12.29 17:26</t>
+          <t>2021.12.29 18:27</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Luxury imports fly off the lot driven by pandemic spending</t>
+          <t>껑충 오르는 실손보험료…갈아탈까요, 말까요?</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021.12.29 17:25</t>
+          <t>2021.12.29 18:26</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>인천공항공사 '자폐인 디자이너 사회활동 지원' 협약</t>
+          <t>[인사] 하나금융투자</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2021.12.29 17:25</t>
+          <t>2021.12.29 18:25</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>중국 AI 개발하고 4조원 번 교수 “또 억만장자 탄생”</t>
+          <t>홍원학 “회사보다 고객에 이로운 상품 만들자”</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2021.12.29 17:25</t>
+          <t>2021.12.29 18:25</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>신세계건설, 평택 물류센터 신축공사 1646.7억원 수주</t>
+          <t>문성혁 해수부 장관 "부산항 진해신항을 한국형 스마트 메가포트로 개발할 것"</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2021.12.29 17:24</t>
+          <t>2021.12.29 18:25</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>"제2 한강의 기적, 불가능하단 법 있나요"</t>
+          <t>"정부가 직접 재개발"...도심복합사업지 7곳 첫 선정</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2021.12.29 17:24</t>
+          <t>2021.12.29 18:24</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>안전기사 못 뽑고, 컨설팅費 수천만원…中企 "중대재해법 자포자기"</t>
+          <t>정부, 내년 상반기 중앙재정 126조 원 집행…집행관리 대상의 63%</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2021.12.29 17:24</t>
+          <t>2021.12.29 18:24</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>올해 상승률 1위는 ‘위메이드맥스’···1500% 급등한 블록체인 게임개발업체</t>
+          <t>결합심사 지연에 대한항공, 아시아나 주식 취득일 연기</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2021.12.29 17:23</t>
+          <t>2021.12.29 18:24</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>시큐리티 어워즈 코리아 2021</t>
+          <t>새해 증시, 3일 오전 10시 개장</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2021.12.29 17:23</t>
+          <t>2021.12.29 18:24</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>국민은행, 내년부터 우대금리 혜택 부활…전세대출 최대 0.9% 금리인하 효과</t>
+          <t>거래소, 내달 3일 ‘2022년도 증권·파생상품시장 개장식’ 개최</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2021.12.29 17:23</t>
+          <t>2021.12.29 18:24</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>보금자리론 내년 1월 금리 동결…연 3.0∼3.4%</t>
+          <t>하나금투, 조직개편·인사…대표 직속 ICT그룹 신설 "디지털 강화"</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2021.12.29 17:23</t>
+          <t>2021.12.29 18:24</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>굿바이 오설록 명동점..올해 끝으로 폐점</t>
+          <t>금융당국, ‘신용대출 연소득 이내 규제’ 내년 상반기까지 한시 적용</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2021.12.29 17:23</t>
+          <t>2021.12.29 18:23</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>메인콘텐츠, 여성가족부 '가족친화인증' 기업 선정</t>
+          <t>한국 첫 포스코 용광로 명예로운 퇴직…48년 ‘제철보국’ 수고했다</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2021.12.29 17:23</t>
+          <t>2021.12.29 18:23</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>시큐리티 어워즈 코리아 2021</t>
+          <t>[숫자로 본 경제] 늦어지는 ‘병원비 걱정 없는 나라’…비급여와의 전쟁</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2021.12.29 17:22</t>
+          <t>2021.12.29 18:23</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>안양대 스마트시티공학과, 진화 주도하는  가상공간의 미래를 엿보다</t>
+          <t>항공 반토막나자 운수업도 급락…육상운송·창고는 상승세</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2021.12.29 17:22</t>
+          <t>2021.12.29 18:23</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>장거리 능력 없는 LCC에…대한항공 '알짜노선' 나눠주라는 공정위</t>
+          <t>'K-테크' 총집결… TV·모빌리티 미래 연다 [미리보는 CES 2022]</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2021.12.29 17:22</t>
+          <t>2021.12.29 18:22</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>손경식 "5인 미만 사업장, 근로기준법 적용 우려"</t>
+          <t>신일전자 정윤석 대표이사, 사장으로 승진</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2021.12.29 17:22</t>
+          <t>2021.12.29 18:22</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>'시민 참여' 방역체계 논의 시동…동선 알림앱 검토</t>
+          <t>[인사]수협중앙회</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2021.12.29 17:22</t>
+          <t>2021.12.29 18:21</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>국힘 "윤석열 비방 조직적 댓글 징후"…내일 회견서 공개</t>
+          <t>Tiger trinkets</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2021.12.29 17:22</t>
+          <t>2021.12.29 18:21</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>쿠팡, 유료회원제 '와우 멤버십' 요금 월 2천900원→4천990원</t>
+          <t>대한항공-아시아나 합병 '독점노선 반납' 조건부 승인 [항공 빅2 합병 조건부 승인]</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2021.12.29 17:22</t>
+          <t>2021.12.29 18:21</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>‘100% 비대면 주담대’ 자신하는 카뱅…시중은행 상품과 차별화 보일까</t>
+          <t>'최고의 한해' 보낸 한국 수출</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2021.12.29 17:22</t>
+          <t>2021.12.29 18:21</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>신세계, 서울옥션에 280억 규모 지분 투자…"예술품 사업 강화"</t>
+          <t>엔이에스, 정선정보공업고등학교와 산학협력 체결</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2021.12.29 17:21</t>
+          <t>2021.12.29 18:21</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>"중대재해 사고 60%, 건설업종에서 발생"</t>
+          <t>증산 등 7곳에 1만가구, 첫 도심복합사업지로</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2021.12.29 17:21</t>
+          <t>2021.12.29 18:21</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>한샘, 2022년 신학기 맞아 서재·자녀방가구 신제품 출시</t>
+          <t>내년 상반기, 중앙재정 '123조' 푼다…소상공인·일자리 지원</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2021.12.29 17:21</t>
+          <t>2021.12.29 18:21</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>반세기 쇳물 뽑아 韓 제조업 신화…'민족 고로'의 위대한 퇴장</t>
+          <t>이영관 도레이첨단소재 회장, 친환경 캠페인 ‘고고챌린지’ 동참</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2021.12.29 17:21</t>
+          <t>2021.12.29 18:21</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>‘레드바이오’와 결별한 CJ그룹 다시 돌아오게 만든 ‘마이크로바이옴’의 매력은</t>
+          <t>Checking the engines</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2021.12.29 17:21</t>
+          <t>2021.12.29 18:20</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>돼지고기 온라인 경매 시범 운영…2023년 본격 도입</t>
+          <t>[ET] 내일부터 오미크론 신속검사 외</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2021.12.29 17:20</t>
+          <t>2021.12.29 18:20</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>쿠쿠 트윈프레셔, 11월 누적 판매 82% '껑충'</t>
+          <t>통신3사, 28㎓ 5G기지국 4.5만개 '공염불'…고작 312개(종합)</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2021.12.29 17:20</t>
+          <t>2021.12.29 18:20</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>공정위, SK스퀘어어 지주사 기준 충족 심사결과 통지</t>
+          <t>인사혁신처 "공무원시험 응시연령 하향·5급 공채 2차 선택과목 폐지"</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2021.12.29 17:20</t>
+          <t>2021.12.29 18:20</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>네이버 쇼핑, 일본서 야후재팬과 통합하기로…대만·스페인도 진출</t>
+          <t>10명 중 4명 암 걸려…위암 제치고 가장 많이 걸리는 암은?</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2021.12.29 17:20</t>
+          <t>2021.12.29 18:20</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>한미글로벌, 사회복지법인 ‘따뜻한동행’에 17억원 기부</t>
+          <t>That was a blast!</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2021.12.29 17:20</t>
+          <t>2021.12.29 18:19</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>문성혁 장관 “HMM 독립 바라지만…아직은 때 아냐”</t>
+          <t>[운용사 추천 내년 ETF는] "액티브 ETF가 시장 주도"···메타버스·환경테마 '찜'</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2021.12.29 17:20</t>
+          <t>2021.12.29 18:19</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>아시아서 덩치 키우는 머스크…HMM은 '흠…'</t>
+          <t>TCC스틸, 포항공장 니켈도금강판 설비 증설 760억 투자</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2021.12.29 17:20</t>
+          <t>2021.12.29 18:19</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>삼성전자, 中 시안 반도체 사업장 생산 라인 축소</t>
+          <t>'통신대란' 막는다...통신 업체끼리 망 공유 확대</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2021.12.29 17:19</t>
+          <t>2021.12.29 18:18</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>신세계, 미술품 경매사 서울옥션에 280억원 투자…지분율 4.8%(종합)</t>
+          <t>은평구청장 "신분당선 서북부 연장, 예타 선정 환영"</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2021.12.29 17:18</t>
+          <t>2021.12.29 18:18</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>HDC현산, 근로자 중심 안전문화 정착…안전경영실 신설</t>
+          <t>거리두기 2주 더 가닥…병상대기 56일만에 0명</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2021.12.29 17:18</t>
+          <t>2021.12.29 18:18</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>국내 최초 민간과학 로켓 블루웨일0.1 제주 상공을 날다(종합)</t>
+          <t>중대재해법 첫 타깃 피하려 '공사중단' 고육책까지</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2021.12.29 17:18</t>
+          <t>2021.12.29 18:18</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>신세계, 서울옥션 주식 85.7만주 280억원 취득</t>
+          <t>中 CATL, 올해 배터리 시장 1위…LG엔솔 2위 굳혀(종합)</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2021.12.29 17:18</t>
+          <t>2021.12.29 18:18</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>"올해 세계 주식시장 주인공, '개인'"…동학개미는 '갸웃'</t>
+          <t>10월 출생 2만736명 '역대 최저'</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2021.12.29 17:18</t>
+          <t>2021.12.29 18:17</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>연 3%, 2억7천까지 빌려준다…토스뱅크 1월1일 11시부터 대출재개</t>
+          <t>OLED 앞서가는 LGD···30% 더 밝은 차세대 패널 공개</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2021.12.29 17:18</t>
+          <t>2021.12.29 18:17</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>CJ 택배 노동자들, 사회적 합의 이행 촉구</t>
+          <t>LG디스플레이의 'OLED 혁신'… 더 밝아지고 더 얇아졌다</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2021.12.29 17:17</t>
+          <t>2021.12.29 18:17</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>통신 대란 때 공공 와이파이 활용 가능</t>
+          <t>일회용 포장재 NO···친환경으로 채운 '미래형 쇼핑공간'</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2021.12.29 17:17</t>
+          <t>2021.12.29 18:17</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>위중증·오미크론 또 최다…'거리두기 연장 가능성'</t>
+          <t>편의점 근접 출점 제한하는 자율규약, 3년 더 연장됐다(종합)</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2021.12.29 17:17</t>
+          <t>2021.12.29 18:17</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A24, 연말 맞아 뷰티제품 최대 50% 할인</t>
+          <t>3조 판 개미 하루만에 3조 매수···기관은 ‘연말 단타’</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2021.12.29 17:17</t>
+          <t>2021.12.29 18:17</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>전문 쇼핑몰 캐시미어 브랜드 ‘칼레이트’, 한컬렉션 매장 입점</t>
+          <t>KB국민은행도 우대금리 부활…최대 0.3%p</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2021.12.29 17:17</t>
+          <t>2021.12.29 18:16</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>오늘의 증시 메모[12월 30일]</t>
+          <t>"中 생산자·수출물가 오르면 국내 소비자가격 상승"</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2021.12.29 17:17</t>
+          <t>2021.12.29 18:16</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>[오후초대석] 코스피, 美 증시에 비해 ‘지지부진’ 이유는?</t>
+          <t>위중증 1151명 또 최다…신규확진 다시 5천명대로</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2021.12.29 17:16</t>
+          <t>2021.12.29 18:16</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>문성혁 해수부 장관 “올해 해운산업은 트리플 크라운, 국가발전에 일조”</t>
+          <t>전통주까지 파는 골든블루···"종합주류회사 도약"</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2021.12.29 17:16</t>
+          <t>2021.12.29 18:16</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>코로나19 사태 2년…“타인과 멀어지고 빚만 늘었다”</t>
+          <t>내년 상반기 중앙재정 126兆 집행…집행관리 대상 63%</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2021.12.29 17:16</t>
+          <t>2021.12.29 18:15</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>비트코인 폭락설?…"10만불 달성 가능성 높아" [가상자산 투자 판이 바뀐다]</t>
+          <t>하나금투, 디지털·WM부문 강화 조직개편…여성·젊은 인재 발탁</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2021.12.29 17:15</t>
+          <t>2021.12.29 18:15</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>수수료는 매번 깎으면서...툭하면 카드사 동원</t>
+          <t>장중 99.8만원···F&amp;F; '황제주' 코앞</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2021.12.29 17:15</t>
+          <t>2021.12.29 18:15</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>신한은행, 본부장급 인사…17명 '젊은 인재' 등용</t>
+          <t>인근 시세보다 분양가 30~40% 싸... 서울 신길2구역 84㎡ 8억9천만원</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2021.12.29 17:15</t>
+          <t>2021.12.29 18:15</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>넷플릭스 급성장에 유료방송 살리기…'채널개편 수시로'</t>
+          <t>“최저임금에 상여·복리비 포함 합헌” 사용자 손 들어준 헌재</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2021.12.29 17:15</t>
+          <t>2021.12.29 18:15</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>대한항공-아시아나 결합 조건부 승인…경쟁력 약화 불씨 여전</t>
+          <t>정유경의 신세계, 서울옥션에 280억 투자…아트비즈니스 본격화</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2021.12.29 17:14</t>
+          <t>2021.12.29 18:15</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Samsung SDI launches battery brand PRiMX</t>
+          <t>중국 선양행 대한항공 탑승객 코로나 확진…인천~선양 운항 2주 중단</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2021.12.29 17:14</t>
+          <t>2021.12.29 18:14</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>코로나 팬데믹 속 이혼 사상 최대 감소</t>
+          <t>우정사업본부장, 중부권광역우편물류센터 현장점검</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2021.12.29 17:14</t>
+          <t>2021.12.29 18:14</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>한수원 "원전, 초저탄소 에너지원…환경보전에 유리"</t>
+          <t>중부권광역우편물류센터 현장점검</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2021.12.29 17:14</t>
+          <t>2021.12.29 18:14</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>국민은행, 전세자금·주택담보대출 우대금리 최대 0.3%P↑</t>
+          <t>[유럽개장] 장 초반 보합…佛 0.15%↑</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2021.12.29 17:14</t>
+          <t>2021.12.29 18:14</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>건설현장 안전관리 비상..중소건설사 줄도산 우려</t>
+          <t>총수가 직접 뛴다…현대차 정의선·현대重 정기선 미국행 [미리보는 CES 2022]</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2021.12.29 17:14</t>
+          <t>2021.12.29 18:14</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>수젠텍·제노레이 등 11곳 혁신형 의료기기 기업 선정</t>
+          <t>글로벌기업 '동맹 무대'… LG 올레드패널 쓴 삼성 TV 초읽기 [미리보는 CES 2022]</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2021.12.29 17:13</t>
+          <t>2021.12.29 18:14</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>[기업] 현대글로비스, 中 청두에 철도 운송 회사 설립</t>
+          <t>中 '코로나 봉쇄령' 장기화에···삼성, 시안 낸드 생산라인 축소</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2021.12.29 17:13</t>
+          <t>2021.12.29 18:14</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>[기업] 토스뱅크, 1월 1일 11시부터 신규 대출 재개</t>
+          <t>스타트업 250곳, 혁신기술 알린다 [미리보는 CES 2022]</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2021.12.29 17:13</t>
+          <t>2021.12.29 18:14</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>[기업] LG전자, 전국에 무인매장 10곳 더 늘린다</t>
+          <t>갤럭시S21FE 등판…유럽 중저가폰 뚫는다 [미리보는 CES 2022]</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2021.12.29 17:13</t>
+          <t>2021.12.29 18:14</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>[기업] 기아 EV6, 독일 3대 자동차 전문지 잇달아 호평</t>
+          <t>‘택배 멈췄다’ 물류대란 현실화…일부 대리점 접수 중단</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2021.12.29 17:13</t>
+          <t>2021.12.29 18:14</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2022 글로벌 선거 다 모았다…증시 흔들 정치 이슈 [김보미의 뉴스카페]</t>
+          <t>하나금투, WM·디지털 조직 강화…젊은·여성인재 발탁</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2021.12.29 17:13</t>
+          <t>2021.12.29 18:13</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>"구리 값 내년에 더 오른다"…질주하는 대창·이구·서원</t>
+          <t>새해 증시, 3일 오전 10시 개장</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2021.12.29 17:13</t>
+          <t>2021.12.29 18:13</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>아진피앤피 "골판지 상자 무게 확 줄일 것"</t>
+          <t>내년 상반기 중앙재정 126조 조기집행…소상공인 지원 등 6대 계획 중점</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2021.12.29 17:13</t>
+          <t>2021.12.29 18:13</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>미술품에 꽂힌 신세계 정유경...서울옥션에 280억 지분 투자</t>
+          <t>[인사] KB국민카드</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2021.12.29 17:13</t>
+          <t>2021.12.29 18:13</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>홍원학 신임 삼성화재 사장 자사주 1500주 매입</t>
+          <t>현대글로비스, 中운송법인 설립···中-유럽 철맥 잇는다</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2021.12.29 17:13</t>
+          <t>2021.12.29 18:13</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>300만불 이하 해외투자자 내년부터 사업보고서 안낸다</t>
+          <t>[표]유가증권·코스닥 투자주체별 매매동향(12월 29일-최종치)</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2021.12.29 17:13</t>
+          <t>2021.12.29 18:13</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>[초점] 실손보험 문제는 '비급여'…손보사 4세대 전환 '안간힘'</t>
+          <t>신한은행, 1968~69년생 본부장 17명 선임…"세대교체"</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2021.12.29 17:13</t>
+          <t>2021.12.29 18:12</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>‘토지70% 확보’ 조건에 소송까지…암초 만난 도심복합사업</t>
+          <t>삼성SDI, 배터리 브랜드화 선언···AI로 품질검사</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2021.12.29 17:13</t>
+          <t>2021.12.29 18:12</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>마이크로디지탈, 코로나항체키트 35.6억원 공급계약</t>
+          <t>해외생산기지 줄줄이 가동···'K푸드 현지화' 올인</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2021.12.29 17:12</t>
+          <t>2021.12.29 18:12</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>문성혁 “HMM 매각은 아직 때 아냐…잘 키워 독립시킬 날 빨리오길”</t>
+          <t>CJ CGV, 美 법인 유상증자 참여…83억원 자금 지원</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2021.12.29 17:12</t>
+          <t>2021.12.29 18:12</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>`희토류` 무기화하는 중국…주목해야 할 투자 아이디어 [김보미의 뉴스카페]</t>
+          <t>[표]코스닥 기관·외국인·개인 순매수·도 상위종목(12월 29일-최종치)</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2021.12.29 17:12</t>
+          <t>2021.12.29 18:12</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>"외주제작 프로그램 저작권 70% 이상 방송사가 소유"</t>
+          <t>메디아나, 117억 규모 토지·건물 양도 결정</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2021.12.29 17:12</t>
+          <t>2021.12.29 18:12</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>투자자 60% "내년 증시 상승"…"해외투자 비중 확대" [2022 증시전망 - 투자자 천명 설문]</t>
+          <t>[표]유가증권 기관·외국인·개인 순매수·도 상위종목(12월 29일-최종치)</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2021.12.29 17:12</t>
+          <t>2021.12.29 18:12</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>'내부 비리 폭로' 최혁진 보훈공단 이사, 공단 관계자 고소</t>
+          <t>홍원학 삼성화재 사장 자사주 매입…"책임경영 의지 표현"</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2021.12.29 17:12</t>
+          <t>2021.12.29 18:11</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>신세계, 서울옥션에 280억 투자 "미술품 사업 강화"</t>
+          <t>동탄2신도시 도심권 테라스 하우스…"편의성·쾌적성 두 마리 토끼 잡자"</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2021.12.29 17:12</t>
+          <t>2021.12.29 18:11</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>코스피, 배당락 영향에 3000 아래로…코스닥은 1020선 방어</t>
+          <t>하나금융투자, 조직·인사개편 단행… "사업 경쟁력 확대·인프라 강화"</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2021.12.29 17:12</t>
+          <t>2021.12.29 18:11</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>"정우성 믿었는데"···'고요의 바다' 개미의 눈물</t>
+          <t>[인사] KB국민카드</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2021.12.29 17:12</t>
+          <t>2021.12.29 18:11</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>피엘라벤코리아 ‘2022년 클래식 코리아’ 사전 답사 마쳐</t>
+          <t>[인사] 기획재정부</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2021.12.29 17:12</t>
+          <t>2021.12.29 18:11</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>중국 시안 ‘봉쇄’ 일주일째… 삼성전자 반도체 생산 줄인다</t>
+          <t>기저효과 없었다…'공장 멈춘' 베트남, 올 GDP 성장률 또 최저치</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2021.12.29 17:12</t>
+          <t>2021.12.29 18:11</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>평사원 입사 30년 만에 사장 등극…역대 최대매출 올린 이 남자</t>
+          <t>[사진] “힘찬 항공기 엔진처럼···한국 경제, 비상하라”</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2021.12.29 17:12</t>
+          <t>2021.12.29 18:11</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>“OLED가 새로운 ‘경험’ 된다”…LG디스플레이, 차세대 TV 패널 공개</t>
+          <t>대한항공, 아시아나 주식 취득일 연기…"결합심사 지연 때문"</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2021.12.29 17:12</t>
+          <t>2021.12.29 18:11</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>'사명' 바꾼 두올물산 "바이오 집중"…합병에 달렸다</t>
+          <t>[2021년 펀드시장 결산] 해외펀드 설정액 57%↑ 22조···ETF 덩치 40% '쑥'</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2021.12.29 17:12</t>
+          <t>2021.12.29 18:11</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>중견기업 경기전망 2분기 연속 하락···식음료 제외 대부분 업종 하락세</t>
+          <t>가전 성수기는 옛말…이상 기후·코로나19에 '계절 경계' 사라졌다</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2021.12.29 17:12</t>
+          <t>2021.12.29 18:11</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>CJ대한통운 택배노조 파업 이틀째…노원 등 일부 지역 택배발송 중단</t>
+          <t>“KT 인터넷 위약금, 왜 이렇게 비싼가 했더니” 10억원 넘게 더 받았다</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2021.12.29 17:11</t>
+          <t>2021.12.29 18:11</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>대한항공·아시아나 결합 ‘조건부 승인’…“슬롯 반납, 운수권 재배분”</t>
+          <t>하나금투 "디지털·자산관리 역량 강화 위한 조직개편 단행"</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2021.12.29 17:11</t>
+          <t>2021.12.29 18:11</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>세스코, 바이러스 케어 시장 공략</t>
+          <t>[ET] “내 건강 지키는 보험료, 10만 원이면 충분”</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2021.12.29 17:11</t>
+          <t>2021.12.29 18:10</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>중진공 '넥스트 유니콘'에 헬스케어 벤처 등 4곳</t>
+          <t>[ET] 중국 차간호서 ‘전통 겨울 낚시’ 한창</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2021.12.29 17:11</t>
+          <t>2021.12.29 18:10</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>롯데백화점서 열린 체험형 전시 ‘어벤져스 스테이션’ 주목 받아 특별 갈라쇼 진행</t>
+          <t>"노선 조정해라" 항공 빅딜 깐깐한 잣대… 해외 심사가 관건 [항공 빅2 합병 조건부 승인]</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2021.12.29 17:11</t>
+          <t>2021.12.29 18:10</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>국민은행도 우대금리 복구…주담대·전세대출 금리 낮아진다</t>
+          <t>"슬롯 반납 기준 모호해 시장 혼란 부추겨... 운수권, 국내 LCC가 못가져가면 해외로" [항공 빅2 합병 조건부 승인]</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2021.12.29 17:11</t>
+          <t>2021.12.29 18:10</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>[영상뉴스] 포항제철 1고로·호남화력 역사 속으로…반세기 임무 마치고 퇴역</t>
+          <t>좋은사람들, 50억 규모 제3자배정 유증 결정</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2021.12.29 17:10</t>
+          <t>2021.12.29 18:10</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>홍원학 신임 삼성화재 사장 자사주 매입…"책임경영 의지"</t>
+          <t>신화콘텍, 중견기업→벤처기업부 변경</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2021.12.29 17:10</t>
+          <t>2021.12.29 18:10</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>"중국 물가압력, 생활용품·식료품부터 한국 전이"</t>
+          <t>대한항공·아시아나 결합 잠정 승인…일부 운임 인상 제한·서비스 축소 금지 조건</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2021.12.29 17:10</t>
+          <t>2021.12.29 18:10</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>"아직도 부족하다"…중국, 리튬 확보 전쟁 연말까지 이어진다</t>
+          <t>SGC에너지, 1945억 규모 신재생에너지공급인증서 매매 계약</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2021.12.29 17:10</t>
+          <t>2021.12.29 18:10</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>"살고 싶습니다"…끝나지 않는 코로나, 동네가게가 사라진다</t>
+          <t>부산 해운대수목원 확대 조성</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2021.12.29 17:09</t>
+          <t>2021.12.29 18:09</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>"김프 투자용 우려"…NH농협카드도 1인당 해외인출 한도 도입</t>
+          <t>케이투웹테크, '웹어워드코리아' 교육부문 통합대상 등 6관왕</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2021.12.29 17:09</t>
+          <t>2021.12.29 18:08</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>교육교부금 3배 늘 때 학령인구 45%↓...KDI "전면개편해야"</t>
+          <t>[인사]KB국민카드</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2021.12.29 17:09</t>
+          <t>2021.12.29 18:08</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>[인사]신한은행</t>
+          <t>올 입주물량 5년來 최저...내년도 청약열기 계속된다</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2021.12.29 17:09</t>
+          <t>2021.12.29 18:08</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>문성혁 “황금알 낳는 거위, HMM 매각은 아직 때 아니다”</t>
+          <t>신용대출 연봉내 한도 제한 내년 상반기까지 적용…중저신용자는 제외</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2021.12.29 17:09</t>
+          <t>2021.12.29 18:08</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>삼성, 中시안 반도체 사업장 가동률 낮춰…낸드 업황 영향주나(종합2보)</t>
+          <t>손잡은 밀리의서재·지니뮤직, 구독 서비스로 대중화 성공할까?</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2021.12.29 17:09</t>
+          <t>2021.12.29 18:08</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>중소기업 절반 가까이 "올해 자금 사정 악화"</t>
+          <t>'제2 검단' 논란 부산 복산1구역 재개발 심의 보류</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2021.12.29 17:09</t>
+          <t>2021.12.29 18:07</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>대성학원, 2023학년도 N수생을 위한 현장 설명회 진행</t>
+          <t>넥슨 "숨 고르기 끝"…'던파 모바일' 등 신작 총공세</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2021.12.29 17:08</t>
+          <t>2021.12.29 18:07</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>광양제철소, '포스튜브 경진대회' 성과물 공유 활성화</t>
+          <t>배달기사 등 퀵서비스·대리기사도 내년부터 고용보험 가입</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2021.12.29 17:08</t>
+          <t>2021.12.29 18:07</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>삼성엔지니어링, 삼성전자 평택공장 공사 3300억원 수주</t>
+          <t>수자원공사, 부산 스마트빌리지 입주 앞두고 현장점검</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2021.12.29 17:07</t>
+          <t>2021.12.29 18:07</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>배당락일, 삼천피 또 무너졌다…전문가 "연초 변동성 대비해야"</t>
+          <t>송파 가락삼익맨숀 1531세대로 재건축</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2021.12.29 17:07</t>
+          <t>2021.12.29 18:07</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>대한항공-아시아나 통합, 소비자 피해 막을 ‘묘수’ 못찾은 채 전원회의 상정</t>
+          <t>올해 입주물량 32만가구 '5년 내 최저'</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2021.12.29 17:07</t>
+          <t>2021.12.29 18:07</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>KB저축은행, 수십억원 횡령 사고 발생…"해당 직원 수사 중"</t>
+          <t>수방사 부지 사전청약 1년 연기… 신혼부부들 '당혹'</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2021.12.29 17:07</t>
+          <t>2021.12.29 18:07</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>국토부·서울시, 30일부터 공공재개발 후보지 2차 공모</t>
+          <t>업사이클 앞둔 반도체 '화창'···불확실성 커진 유통 '비바람'</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2021.12.29 17:07</t>
+          <t>2021.12.29 18:07</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Social distancing rules influencing behavior less</t>
+          <t>공공재개발 2차 공모… 도시재생지역도 신청 가능</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2021.12.29 17:06</t>
+          <t>2021.12.29 18:07</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>공주대 김광훈 교수, 해양수산과학기술대상 우수상</t>
+          <t>아스트로젠, 2022년 임원 인사 및 조직 개편</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2021.12.29 17:06</t>
+          <t>2021.12.29 18:07</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>"충분히 팔았다"던 머스크, 테슬라 또 팔았다…한번 더?</t>
+          <t>KB국민은행도 우대금리 부활…최대 0.3%p</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2021.12.29 17:06</t>
+          <t>2021.12.29 18:07</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>레고·바비인형…완구에 푹빠진 '어른이'들</t>
+          <t>[ET] 올해의 인물, 단연코 ‘일론 머스크’</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2021.12.29 17:06</t>
+          <t>2021.12.29 18:06</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>헬릭스미스 구원투수 박영주 "실패분석 끝…3상 성공 올인"</t>
+          <t>신세계건설, 1647억 규모 평택포승물류센터 신축공사 수주</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2021.12.29 17:06</t>
+          <t>2021.12.29 18:06</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>현대건설, '힐스테이트 평택 더퍼스트' 분양</t>
+          <t>48년간 쇳물 쏟아내며 韓중공업 일으켜···'역사의 뒤안길로'</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2021.12.29 17:06</t>
+          <t>2021.12.29 18:06</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>'호랑이띠 동갑' 삼성 한종희·LG 조주완, 미래 먹거리 발굴 집중</t>
+          <t>만도, 한라대와 자동차 SW 인재 키운다</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2021.12.29 17:06</t>
+          <t>2021.12.29 18:05</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>정윤석 신일전자 사장 승진</t>
+          <t>국민연금-금투협, 기금운용 인력양성 교육기관 설립</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2021.12.29 17:06</t>
+          <t>2021.12.29 18:05</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>"통신3사 28㎓ 5G기지국 연말까지 4.5만개 구축 목표 이행률 1%도 안돼"</t>
+          <t>한미글로벌, 사회복지법인 '따뜻한동행'에 17억 원 기부</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2021.12.29 17:05</t>
+          <t>2021.12.29 18:05</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>인천공항공사 ‘자폐인 디자이너 사회활동 지원사업 협약식'</t>
+          <t>우리은행·국민은행, 내년 대출 우대금리 부활</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2021.12.29 17:05</t>
+          <t>2021.12.29 18:05</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>'사랑나눔' 생활공작소·엠마…생활용품·매트리스 등 기부</t>
+          <t>이영관 도레이첨단소재 회장, 친환경 캠페인 ‘고고 챌린지’ 동참</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2021.12.29 17:05</t>
+          <t>2021.12.29 18:05</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>인천공항공사, ‘자폐인 디자이너 사회활동 지원’ 나서</t>
+          <t>정부, 내년 상반기 중앙재정 126조원 집행…집행관리 대상의 63%</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2021.12.29 17:05</t>
+          <t>2021.12.29 18:05</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>[포토] 이런 사진관 어떤가요</t>
+          <t>KB저축은행 팀장급 직원, 회삿돈 수십억원 횡령…"수사기관 의뢰"</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2021.12.29 17:05</t>
+          <t>2021.12.29 18:04</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>[표]유형별 펀드 자금 동향(12월 28일)</t>
+          <t>쿠팡·리비안이 이끌었다…올해 기업 자금조달 1경원, 사상최대</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2021.12.29 17:05</t>
+          <t>2021.12.29 18:04</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>[인사] 신한은행</t>
+          <t>신임 신복위원장에 이재연 금융연구원 부원장</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2021.12.29 17:05</t>
+          <t>2021.12.29 18:04</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>한진家, 6억원대 양도세 취소소송 항소심도 패소</t>
+          <t>누리호 3단엔진 조기종료는 헬륨탱크 설계오류 탓(종합)</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2021.12.29 17:05</t>
+          <t>2021.12.29 18:04</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>[공모주 투자노트] 게임 넘어 메타버스로…국책과제도 잇따라 수행</t>
+          <t>한미글로벌, ‘따뜻한동행’에 17억원 기부</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2021.12.29 17:05</t>
+          <t>2021.12.29 18:04</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>K-메타버스 ETF 순자산 5천억 돌파</t>
+          <t>와우 멤버십 구독료 4,990원···3년 만에 인상한 쿠팡</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2021.12.29 17:05</t>
+          <t>2021.12.29 18:04</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>남부발전, 2045년 화력발전 무탄소 에너지 전환 선언</t>
+          <t>현대엔지니어링, '현대 테라타워' 리뉴얼…"리딩 입지 강화"</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2021.12.29 17:05</t>
+          <t>2021.12.29 18:03</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>[인사] 광주은행</t>
+          <t>“이럴거면 왜 팔았나”…실손보험료 해법은?</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2021.12.29 17:04</t>
+          <t>2021.12.29 18:03</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>금감원, 2011~2014년 회계감리 지적 사례 27건 추가 공개</t>
+          <t>[씨레라] 대기업 총수들의 청년 응원·초고속 승진 ‘CJ 3세’ 이선호·CES 공식 데뷔 정기선</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2021.12.29 17:04</t>
+          <t>2021.12.29 18:03</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>“친환경·미래먹거리 발굴” SPC삼립 ESG상생경영 박차</t>
+          <t>[건설IN] ‘개인회사 부당지원’ DL 이해욱 회장 결국 벌금형·구본환 인천공항공사 사장 복귀 가능할까</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2021.12.29 17:04</t>
+          <t>2021.12.29 18:03</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>[표] 주요 증시 지표 (12월 29일)</t>
+          <t>[산업 막전막후] 확률형아이템부터 KT 통신사고, SK실트론 논란…산업계 ‘다사다난’</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2021.12.29 17:04</t>
+          <t>2021.12.29 18:03</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>마이크로디지탈, 35억 규모 코로나 대용량 항체진단키트 공급 계약</t>
+          <t>[유통팔달] 남양유업·이마트·하림 오너들 수난시대</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2021.12.29 17:03</t>
+          <t>2021.12.29 18:03</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>마이크로디지탈, 170억 규모 코로나 진단키트 공급계약 해지</t>
+          <t>엔제리너스, 특별해지는 새로운 만남 공간 선보여</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2021.12.29 17:03</t>
+          <t>2021.12.29 18:03</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>[ IBK창공 '씨엔티테크' 육성기업 단신 ] 팟캐스트 '나이비'·웹 메타버스 '넷스트림'</t>
+          <t>[인사] 기획재정부</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2021.12.29 17:03</t>
+          <t>2021.12.29 18:03</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>코스피, 약보합으로 거래 마감‥통신·금융주 하락세</t>
+          <t>[ET] “앗! 휴대전화 어디갔지?”…내 분신과 이별하지 않으려면</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2021.12.29 17:02</t>
+          <t>2021.12.29 18:02</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>[산업 디지털 전환 정책 성과]산업 디지털 전환 법 근거 마련…후속 이행계획 속도</t>
+          <t>HDC현산, 안전경영실 신설…근로자 중심 안전문화 정착 지원 강화</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2021.12.29 17:02</t>
+          <t>2021.12.29 18:02</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>"공정위 심사 지연에"…대한항공, 아시아나 합병 세번째 정정공시</t>
+          <t>24개월째 인구 자연감소… 10월 출생아 ‘역대 최저’</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2021.12.29 17:02</t>
+          <t>2021.12.29 18:02</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>[산업 디지털 전환 정책 성과]기업 맞춤형 디지털 전환 과제 발굴하고, 맞춤형 컨설팅 성과</t>
+          <t>FTC signals conditional approval of Korean Air-Asiana merger</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2021.12.29 17:02</t>
+          <t>2021.12.29 18:02</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>[산업 디지털 전환 정책 성과]김상모 산업기술융합정책관 "내년 산업 디지털 전환 '붐' 조성할 것"</t>
+          <t>국내 목재이용량 2726만5000㎥…국산목재 15.7% 활용</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2021.12.29 17:02</t>
+          <t>2021.12.29 18:02</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>300만불 이하 해외투자자, 연간사업보고서 안 낸다</t>
+          <t>내년 산재보험료율 1.53% 동결</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2021.12.29 17:02</t>
+          <t>2021.12.29 18:01</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>[人사이트]권이균 K-CCUS 추진단장 "성공적인 CCUS 생태계 만들겠다"</t>
+          <t>"집값 급등 이유 있었네"…올해 아파트 입주물량 5년 내 최저</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2021.12.29 17:02</t>
+          <t>2021.12.29 18:01</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>중국 생산자물가, 한국 소비자물가 밀어올려</t>
+          <t>우리은행 이어 KB국민은행도 우대금리 부활…은행권 확산하나</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2021.12.29 17:02</t>
+          <t>2021.12.29 18:01</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>애경산업 ‘사랑과 존경의 연탄 나눔’ 전달식</t>
+          <t>"KBS 수신료 현실화 필요…공영방송 역할도 재검토해야" 방통위, 의견서 국회 제출키로</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2021.12.29 17:02</t>
+          <t>2021.12.29 18:01</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>신한금융, 지배구조 투명성 강화…준법경영·부패방지경영 '동시 인증'</t>
+          <t>日증시 하락 마감..닛케이 28906.88(-0.56%)</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2021.12.29 17:02</t>
+          <t>2021.12.29 18:01</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>[인사]신일전자, 정윤석 대표이사 사장 승진</t>
+          <t>쪼그라드는 금융산업···'성장판' 다시 열어라</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>2021.12.29 17:02</t>
+          <t>2021.12.29 18:01</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>1월 보금자리론 금리 동결···최저 연 3%</t>
+          <t>하이독, 수의사가 검증한 '케어브이' 처방 화식사료 4종 출시</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2021.12.29 17:02</t>
+          <t>2021.12.29 18:00</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>[인사]신한은행</t>
+          <t>약관에 없는 위약금 10억여원 물린 KT에 과징금 22억여원</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2021.12.29 17:02</t>
+          <t>2021.12.29 18:00</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>[인사] 홈플러스</t>
+          <t>노루페인트 색 입힌 '포토존' MZ세대 맘에 쏙</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>2021.12.29 17:01</t>
+          <t>2021.12.29 18:00</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>국민은행도 대출 우대금리 부활…최대 0.3%p 확대</t>
+          <t>재택 근무·수업 OK… 새해 집단장 해볼까</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2021.12.29 17:01</t>
+          <t>2021.12.29 18:00</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>우리은행 이어 KB국민은행도 우대금리 높여…최대 0.3%p↑</t>
+          <t>툭하면 셧다운 중국…삼성 반도체공장마저 전격 감산</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2021.12.29 17:01</t>
+          <t>2021.12.29 18:00</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>국내 인구이동 11개월째↓…서울서 21개월 연속 유출</t>
+          <t>대한항공·아시아나 합병…'노선 조정' 조건부로 승인</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2021.12.29 17:01</t>
+          <t>2021.12.29 18:00</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>SK가 전파하는 '선한 영향력'.... 사회적기업 판로 열고 날개 달아준다 [사회적가치 실현하는 기업]</t>
+          <t>"정부, 불개입 선언하고 시장에 맡겨야···특정 계층 위한 선심성 정책도 금물"</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>2021.12.29 17:01</t>
+          <t>2021.12.29 18:00</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>삼성전자, 배당락에 다시 ‘7만전자’로 하락…기관 대량 매도</t>
+          <t>올해 M&amp;A;시장 역대급…1조 넘는 거래만 15건</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2021.12.29 17:01</t>
+          <t>2021.12.29 18:00</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>'K건설기계' 중국 의존도 낮아져…북미·신흥시장 수출 '성공적'</t>
+          <t>[내일날씨] 또 다시 강추위 몰려온다...서울 한낮 영하권</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2021.12.29 17:01</t>
+          <t>2021.12.29 18:00</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>금감원 "온라인게임 요금채권, 회원 연령별로 대손충당금 쌓아야"</t>
+          <t>盧서 文까지 말로만 '동북아허브'···"금융, 규제 아닌 산업으로 봐야"</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2021.12.29 17:01</t>
+          <t>2021.12.29 18:00</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>신임 서금원장·신복위원장에 이재연 금융연구원 부원장 내정</t>
+          <t>주택시장 상승세 '도·노·강' 분양시장도 열기</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2021.12.29 17:00</t>
+          <t>2021.12.29 18:00</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>오미크론 유입 막자… 싱가포르발 항공권 신규판매도 일시 중단</t>
+          <t>제15차 재정관리점검회의</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>2021.12.29 17:00</t>
+          <t>2021.12.29 18:00</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>하나금융그룹, MSCI ESG 평가 A등급 획득…1단계 향상</t>
+          <t>안도걸 차관, '재정관리점검회의' 주재</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>2021.12.29 17:00</t>
+          <t>2021.12.29 18:00</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>봉쇄 일주일 만에…삼성전자, 결국 中시안 반도체 '감산'(종합)</t>
+          <t>재정관리점검회의 주재하는 안도걸 차관</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2021.12.29 17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>HDC아이파크몰, 친환경 쇼핑몰 구현</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>우리은행, 삼성물산 에버랜드와 맞손…생태계 보호</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>디지털 소상공인 6만명 육성..."배달수수료도 지원"</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>“흑호 기운 듬뿍”… 새해 맞이 ‘호랑이 먹거리’ 쏟아진다</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>오용수 방송진흥정책국장, 유료방송업계 상생협의체 개최 관련 브리핑</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>오용수 방송진흥정책국장, 유료방송업계 상생협의체 개최 관련 브리핑</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>오용수 방송진흥정책국장, 유료방송업계 상생협의체 개최 관련 브리핑</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>오용수 방송진흥정책국장, 유료방송업계 상생협의체 개최 관련 브리핑</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>오용수 방송진흥정책국장, 유료방송업계 상생협의체 개최 관련 브리핑</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>오용수 방송진흥정책국장, 유료방송업계 상생협의체 개최 관련 브리핑</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>과기부, 유료방송업계 상생협의체 개최 관련 브리핑</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>과기부, 유료방송업계 상생협의체 개최 관련 브리핑</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>과기부, 유료방송업계 상생협의체 개최 관련 브리핑</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>오용수 과기부 방송진흥정책국장, 유로방송업계 상생협의체 브리핑</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>과기부, 유료방송업계 상생협의체 개최 관련 브리핑</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>쿠팡 와우멤버십 月 4990원으로</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>"브랜드 의류 저렴하게 장만하세요"… 새해맞이 겨울옷 70% 할인</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>광고모델 '로지'·쇼호스트 '루시'… 가상인간 활동영역 넓힌다</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>거리두기 강화에 '체험 공간' 승부수… 유통가 전략 재정비</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>에르메스 vs 테슬라... 명품株에 꽂힌 30대 여성들, 수익률 봤더니</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>심부름 앱 '해주세요' 헬퍼, 월 500만원 벌었다…최다 수익</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:58</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>조달청 혁신제품에 대구경북 3개사 제품 지정</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:58</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>[인사] 신한은행, 본부장 인사 단행</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:58</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>문성혁 “HMM 팔 때 아냐... 빚 다 갚을 때 시장평가 달라질 것”</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:58</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>강원에너지, 스웨덴 회사와 114억원 패키지 계약</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>10월 출생아 '역대 최저' 2.1만명…올해 인구 3.3만명 감소</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>하루만에 3조 되사들인 동학개미..."넉달만에 최대 규모"</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>[인사]홈플러스</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>아마존·AT&amp;T;·GM·비자…배런스가 추천한 내년 美 유망 주식 10선</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>[표]코스피200지수 옵션 시세(12월 29일)</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>[신상품라운지]'규소수' 등장…조윈, '시오200 플러스' 출시</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:56</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>10월 출생아 2만1천명 '역대 최저'…인구 24개월째 자연감소</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:56</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>교역조건, 8년8개월만에 가장 나빠져…"수입금액이 수출금액 넘어선 영향"</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:56</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>배당락일 주가 2990선 후퇴…고배당 금융주 '급락'</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:56</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>금융위, 신임 신용회복위원장에 이재연 금융연구원 부원장 내정</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:56</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>유암코-IBK, 디알모빌리티에 400억 투자</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:56</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>얼어붙은 기업 자금조달 시장… 크레딧 스프레드 올들어 최대</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:56</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>KB證 조직개편 단행... WM·IB·디지털 강화</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:56</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>금감원, 2011∼2014년 감리 지적사례 회계포탈에 공개</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:56</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>삼성효과 기대 '아산 탕정 월드메르디앙 웰리지' 1월 분양</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:56</t>
+          <t>2021.12.29 18:00</t>
         </is>
       </c>
     </row>

--- a/backend/data/101.xlsx
+++ b/backend/data/101.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,720 +448,240 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>12월 기업 체감경기 소폭 개선… 제조업 ‘웃고’·비제조업 ‘울고’</t>
+          <t>SK, CES서 글로벌 탄소 감축 비전 공개…최태원 회장 불참(종합)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021.12.29 19:01</t>
+          <t>2021.12.29 23:03</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>바이든, 연준 부의장에 규제강경파 래스킨 검토</t>
+          <t>대한항공·아시아나 조건부 승인 가닥… 공정위, 위원장 한마디에 심사보고서까지 공개</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021.12.29 19:00</t>
+          <t>2021.12.29 23:02</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>방통위, 약관에 없는 위약금 부과한 KT에 과징금 23억원</t>
+          <t>비트코인, 4만6천달러선 거래…한달간 17%↓</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021.12.29 18:59</t>
+          <t>2021.12.29 22:58</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>마이데이터 전면 시행 연기…1월 1일→5일 조정</t>
+          <t>북한은 '진보 대통령' 원한다(?)…"3월 대선 앞두고 도발 가능성"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021.12.29 18:57</t>
+          <t>2021.12.29 22:57</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>대한항공, 인천-中 선양 노선 코로나 확진자 발생…"2주간 운항 중단"</t>
+          <t>빅토리아시크릿, 2.5억 ASR 계약…개장 전 주가 10%↑</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021.12.29 18:56</t>
+          <t>2021.12.29 22:45</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>중대재해처벌법 시행 코앞인데… 부산 중기 “무사고 기도 심정”</t>
+          <t>"4주만에 회춘" 340억 대박 난 '염색샴푸'…원료금지 날벼락, 왜</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021.12.29 18:55</t>
+          <t>2021.12.29 22:44</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>부산 커피, ‘홈 바리스타’ 입맛도 사로잡았다</t>
+          <t>"강남아파트 20평대 30억 시대"…반포래미안퍼스티지가 열었다</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021.12.29 18:55</t>
+          <t>2021.12.29 22:35</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>코스피, 배당락일 0.89% 하락…3,000선 내줘</t>
+          <t>고유가에 11월 수입·수출금액지수 역대 최고</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2021.12.29 18:54</t>
+          <t>2021.12.29 22:31</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>홈플러스, 2022년 임원 인사…황정희 부사장 승진</t>
+          <t>주금公, 1월 보금자리론 금리 동결…상품 만기에 따라 연 3.00%로 이용 가능</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2021.12.29 18:54</t>
+          <t>2021.12.29 22:28</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SK지오센트릭, 일본 도쿠야마와 '반도체 세정제' 생산법인 설립</t>
+          <t>'아이맥스'로 영화본 관객점유율, 코로나 이전보다 ↑</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2021.12.29 18:54</t>
+          <t>2021.12.29 22:27</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>스치기만 해도 오른다?…수익률 1500% 찍은 메타버스 관련주</t>
+          <t>[인사]신한금융지주</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021.12.29 18:53</t>
+          <t>2021.12.29 22:22</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>농식품부 "연말연시 대설·한파…농작물 피해 대비해야"</t>
+          <t>국제선 운항 축소 불가피···글로벌 경쟁력 저하 우려</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021.12.29 18:53</t>
+          <t>2021.12.29 22:15</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>공정위, 대한항공-아시아나 결합 '조건부 승인' 가닥</t>
+          <t>[2021 M&amp;A;]내년에도 兆단위 매물 줄대기…키워드는 ‘친환경’</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021.12.29 18:52</t>
+          <t>2021.12.29 22:11</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>방통위, KBS 수신료 인상안에 '부정적 의견'…사실상 반대</t>
+          <t>노동부 장관 만난 손경식 "노동법 강화에 기업들 걱정 커…경영부담 우려"(종합)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021.12.29 18:51</t>
+          <t>2021.12.29 22:08</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>통신3사, 연내 4만5천개 세운다던 28㎓기지국 겨우 300개 넘겨</t>
+          <t>골프존카운티, ‘행복한 동행’ 기부 캠페인 통해 총 1억 8천만 원 상당의 이웃 사랑 실천</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021.12.29 18:51</t>
+          <t>2021.12.29 22:03</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>누리호 3단엔진 조기 종료 이유는 '헬륨탱크 이탈'</t>
+          <t>슈주 신동 등장하자 19억6000만원 잭팟…'라방' 뒤집어졌다</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021.12.29 18:50</t>
+          <t>2021.12.29 22:02</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>농식품부 “연말연시 대설·한파 예보…사전대비 당부”</t>
+          <t>주민 힘으로 ‘은행 점포 폐쇄’ 첫 제동...다른 지역으로 확산될까?</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021.12.29 18:49</t>
+          <t>2021.12.29 22:01</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>한화시스템, ‘군위성통신체계-II’ 위성단말기 공급</t>
+          <t>국민연금 다음 달부터 ‘수급권 확인 앱’ 제공</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2021.12.29 18:49</t>
+          <t>2021.12.29 21:59</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>약관에 없는 위약금 10억 원 물린 KT...과징금 22억 원</t>
+          <t>국내 사용 목재 중 국산은 15.7%…목재 전체 매출 8조원</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2021.12.29 18:47</t>
+          <t>2021.12.29 21:59</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>새해 첫 증시, 3일 오전 10시 개장</t>
+          <t>유통기한 2년 넘은 식자재 쓴 예식장 뷔페 적발</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021.12.29 18:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>해수부 장관 "HMM 아직은 팔 때 아냐...시장 평가 더 좋아질 것"</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:46</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>'K중고차 열풍' 오토위니, "누적 수출 10만대 돌파"</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:45</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>[그래픽뉴스] 소상공인</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:45</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>외국인에게 추가 지원금...통신 3사 38억 과징금</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:44</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>'집값 오르는 이유 있었네…' 올해 전국 아파트 물량, 5년 이래 최저</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:44</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>KT, '근거없는 위약금' 10억 소비자에 부과…과징금 '22억원'</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:44</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>[인사] 신한금융지주</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:42</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>[인사] 신한금융지주</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:42</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>[인사] 신한금융지주</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:42</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>마이데이터 전면 시행일 다음 달 5일로 나흘 연기</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:41</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>현대건설, '힐스테이트 평택 더퍼스트' 분양</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:41</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>10월 출생아 또 역대 최저… 2년째 인구 자연감소</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:41</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>코로나 속 수출 사상 최대… 세밑 밝힌 ‘희망등’</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:41</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>주택금융공사, 1월 보금자리론 금리 동결…연 3.0~3.4%</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:40</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>금호타이어, 함평 산단 신공장 부지조성 30일 LH와 협약</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:39</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>"감염경로 불명 오미크론 더 증가할 것…전파력·신속검사 영향"</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:39</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>LH, 조명등 교체로 ‘전력 감축및  판매’ 도입</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:39</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>토스뱅크, 1월1일부터 대출 재개…최저금리 연3%·최고한도 2.7억</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:38</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>'로스트아크' 성장세…신규 유저 545% 증가</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:37</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>[인사] 수협중앙회</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:37</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>SGC에너지, 1945억원 신재생에너지인증서 공급계약</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>삼성전자, 코로나19로 中 시안 반도체 생산라인 축소</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>마이데이터 의무 시행 1월 1일→5일로 연기</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>10월 출생아 2.1만명 역대 최저…2년째 인구감소</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>증시 배당락에 외인·기관 매도…코스피 2990선 마감</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>‘캐스퍼’ 열풍 만든 ‘광주형 일자리’…구미에도 생긴다</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>결합심사 지연에…대한항공, 아시아나 주식 취득일 연기</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:32</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>"MZ세대들이 좋아해요"···LG, 무인매장 19곳으로 확대</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:32</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>벅스, 구독자 1,740만 유튜버 '제이플라' 소속사에 전략적 투자</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:32</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>국민연금-금투협, 기금운용 인력양성 손 잡았다</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:32</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>문성혁 장관 “2030엑스포 부지 ‘북항 2단계’ 예타 내년 6월 완료”</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>'에르메스백' 한번 보겠다고…그릇·담요 4000만원 사재기 왜</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>출점제한 3년 더...편의점 점주 쟁탈전 펼쳐진다</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>대한항공 "아시아나 지분인수 기한, 내달 3월말로 한번 더 연장"</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>감옥 갈수도…중대재해법, 산업 현장에 '시한폭탄'</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>전력망만 30.5조 추가 투입···탄소중립 급발진에 허리휜다</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>'인터넷·IPTV 과도한 위약금' KT 23억 과징금…미환급분 문제도</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:29</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>상가조합원 재건축 분담금 줄어든다…재초환법 법안소위 통과</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:29</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>사회적기업 500곳 신규인증…3200곳서 6.2만명 고용</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>65세 이상 노인 47% 공적연금 수령…월 60만원 수준</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:28</t>
+          <t>2021.12.29 21:58</t>
         </is>
       </c>
     </row>

--- a/backend/data/101.xlsx
+++ b/backend/data/101.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,240 +448,2160 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SK, CES서 글로벌 탄소 감축 비전 공개…최태원 회장 불참(종합)</t>
+          <t>"임직원 여러분 고생하셨습니다" 올해도 랜선 종무식</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021.12.29 23:03</t>
+          <t>2021.12.30 17:33</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>대한항공·아시아나 조건부 승인 가닥… 공정위, 위원장 한마디에 심사보고서까지 공개</t>
+          <t>갤러리아 광교, 베르사유 건축상 쇼핑몰부문 ‘세계1위’</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021.12.29 23:02</t>
+          <t>2021.12.30 17:33</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>비트코인, 4만6천달러선 거래…한달간 17%↓</t>
+          <t>SPC 장남 허진수, 사장 승진… 해외진출 박차</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021.12.29 22:58</t>
+          <t>2021.12.30 17:33</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>북한은 '진보 대통령' 원한다(?)…"3월 대선 앞두고 도발 가능성"</t>
+          <t>아워홈 1년만에 흑자전환… 구지은의 혁신 통했다</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021.12.29 22:57</t>
+          <t>2021.12.30 17:33</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>빅토리아시크릿, 2.5억 ASR 계약…개장 전 주가 10%↑</t>
+          <t>유럽 천연가스 대란에 비료株 뛰네</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021.12.29 22:45</t>
+          <t>2021.12.30 17:33</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>"4주만에 회춘" 340억 대박 난 '염색샴푸'…원료금지 날벼락, 왜</t>
+          <t>배달·비건 확 키웠다… 코로나 위기 속 돌파구 찾은 ‘K 먹거리’</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021.12.29 22:44</t>
+          <t>2021.12.30 17:33</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>"강남아파트 20평대 30억 시대"…반포래미안퍼스티지가 열었다</t>
+          <t>[인사] DGB금융그룹</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021.12.29 22:35</t>
+          <t>2021.12.30 17:33</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>고유가에 11월 수입·수출금액지수 역대 최고</t>
+          <t>The market loved the metaverse in 2021</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2021.12.29 22:31</t>
+          <t>2021.12.30 17:32</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>주금公, 1월 보금자리론 금리 동결…상품 만기에 따라 연 3.00%로 이용 가능</t>
+          <t>'음파 쐬니 잠이 솔솔'..에보소닉, 슬립테크 배게 CES 론칭</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2021.12.29 22:28</t>
+          <t>2021.12.30 17:32</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>'아이맥스'로 영화본 관객점유율, 코로나 이전보다 ↑</t>
+          <t>코웨이, 국내 최초 '물맛품질인증' 획득…"정수기 물맛 인정받아"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2021.12.29 22:27</t>
+          <t>2021.12.30 17:32</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[인사]신한금융지주</t>
+          <t>작년 울산 기업활동 지표 전반적 악화…"코로나 직격탄 영향"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021.12.29 22:22</t>
+          <t>2021.12.30 17:32</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>국제선 운항 축소 불가피···글로벌 경쟁력 저하 우려</t>
+          <t>'아듀 2021' 거래소, 폐장식…"코스피 사상 최고치 성과"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021.12.29 22:15</t>
+          <t>2021.12.30 17:32</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[2021 M&amp;A;]내년에도 兆단위 매물 줄대기…키워드는 ‘친환경’</t>
+          <t>잠잠하던 '국산신약' 올해는 풍년…4개 추가돼 34호까지</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021.12.29 22:11</t>
+          <t>2021.12.30 17:32</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>노동부 장관 만난 손경식 "노동법 강화에 기업들 걱정 커…경영부담 우려"(종합)</t>
+          <t>[인사] 금융감독원</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021.12.29 22:08</t>
+          <t>2021.12.30 17:31</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>골프존카운티, ‘행복한 동행’ 기부 캠페인 통해 총 1억 8천만 원 상당의 이웃 사랑 실천</t>
+          <t>"어디가 더 빠를까"… 가구 vs 이커머스 '배송 혈투'</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021.12.29 22:03</t>
+          <t>2021.12.30 17:31</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>슈주 신동 등장하자 19억6000만원 잭팟…'라방' 뒤집어졌다</t>
+          <t>셀트리온 '유플라이마' 캐나다 진출</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021.12.29 22:02</t>
+          <t>2021.12.30 17:31</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>주민 힘으로 ‘은행 점포 폐쇄’ 첫 제동...다른 지역으로 확산될까?</t>
+          <t>강북·도봉구도…서울 집값 1억씩 '뚝'</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021.12.29 22:01</t>
+          <t>2021.12.30 17:31</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>국민연금 다음 달부터 ‘수급권 확인 앱’ 제공</t>
+          <t>GC녹십자헬스케어 새 이름 'GC케어'... "헬스케어 IT 플랫폼 기업으로 도약"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2021.12.29 21:59</t>
+          <t>2021.12.30 17:31</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>국내 사용 목재 중 국산은 15.7%…목재 전체 매출 8조원</t>
+          <t>웰스 공기청정기 '건강주택대상' 종합대상 수상</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2021.12.29 21:59</t>
+          <t>2021.12.30 17:31</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>유통기한 2년 넘은 식자재 쓴 예식장 뷔페 적발</t>
+          <t>오세훈표 빠른 재건축…'강남 대장주' 은마 제외</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021.12.29 21:58</t>
+          <t>2021.12.30 17:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>보안업체 홍보영상이 이렇게 재밌을 줄이야</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>자투리 동전 모아…카카오페이證 펀드에 1조</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>코로나에도 해외수주 선방…2년 연속 300억弗 돌파</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>충북 보은군 등 4곳…고령자 복지주택 짓는다</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>영국 직장연금펀드, 5개 화석 연료 기업 지분 매각</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>국산 34호 신약 탄생…대웅제약 신약 품목허가 획득</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>강남 양재동 일대 93만㎡ ICT 특정개발진흥지구로</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>어떻게 하면 ‘소통’하는 조직을 만들 수 있을까[김한솔의 경영 전략]</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>범블·오틀리·로빈후드…美 상장 후 줄줄이 하락</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>[기자수첩]대한항공-아시아나 합병 교각살우 안되길</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>금감원, 사전예방 감독 강화에 90% 부서장 교체까지</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>금감원 부서장 90% 변경…대규모 인사·조직개편</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>금감원 조직 개편·인사...디지털 역량 강화, 부서장 80% 변경</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>네이버페이 고객 100여명 계좌·카드 정보 줄줄 샜다</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>[인사]모아저축은행</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>코스닥, 21년만에 '천스닥' 달성…동학개미 올해 11兆 순매수</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>65세 이상 내년부터 ATM 수수료 면제</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>[포토] 금융과 미술의 만남</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>신한카드, CBDC 특허 취득…디지털화폐 기술 연구개발</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>KB금융, 플랫폼 기업에 3000억 투자</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>[포토뉴스] 킹스베리·두리향 딸기 등 이색 과일 선봬는 마트</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>김지형 "삼성 준법위는 백신, 아프고 싫어도 맞아야"</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>한국동서발전, 정보공개 평가 4년 연속 '최우수기관' 선정</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>SK '인텔 낸드' 독립 경영…"인재 이탈 막고 시장 가치 올리겠다"</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>중개형ISA 가입자 200만 돌파</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>[포토뉴스]신년 맞이 할인 행사에 나서는 유통업계</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>바이오젠 인수 '부인’한 삼바…‘바이오시밀러 외도’ 결론은 미지수로</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>[표] 외국환율고시표 (12월 30일)</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>[신년사]박병홍 농진청장 "여건 맞게 특화작목 집중 육성…지역농업 활성화"</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>메모리에 AI기능 이식…차세대 반도체로 또 앞서간다</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>상상인 계열 저축은행, 업계 최초로 주4.5일제 도입</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>"최첨단 D램 전력 소비 13% 줄이고…SSD 수명 4배늘려 초격차 더 벌려"</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>미카도스시, 취약계층에 연탄 1만여 장 기부</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>내년부터 우회전 후 횡단보도 안 서면 보험료 할증</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>마약·약물 운전 사고 시 최대 1억 5천만 원 부담금</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>"상승폭 줄겠지만…내년에도 집값 오를 것"</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>수수료 현실화 하는 쿠팡이츠...건당 1,000원 프로모션 종료</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>바이오젠 인수설 삼바, 하루새 주가 출렁...일부 보도에 급등, 회사측 부인에 제자리</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>삼성·LG전자, 올해 '최대 실적' 예고…관전 포인트는</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>상상인-상상인플러스저축은행, 업계 최초 '주 4.5일제' 도입</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>SK하이닉스가 품은 인텔낸드 나스닥 직행</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>'건설노무관리' 김반장, 국민연금 가입 기준 확대 맞춰 업데이트</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>서울 강북구·도봉구 아파트 매매가 하락 전환</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>"자생식물을 도시 정원식물로" 국립세종수목원, 보급사업 추진</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>"소부장 中企 상용화 기술개발"…중기부, 350억원 투입</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>신성이엔지, 에스디바이오센서에 토지·건물·태양광발전소 299억 처분</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>반려견 데리고 가는 스타벅스 매장 생긴다</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>자동차·반도체 효과에 11월 생산 3.2%↑…소비는 1.9%↓</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>&lt;인사&gt;금융감독원</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>방역패스 줄이고 거리두기 개편…백신 9천만회분 구매</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>고승범 “가계부채 관리는 계속…실수요자는 보호할 것”</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Fish prices going up higher than inflation</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>"공급량 턱없이 부족…서울 아파트 불패 5~6년간 지속된다"</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>中企-대학 손잡고 석·박사급 AI 인재 키운다</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>[특징주] LG화학, 61만5000원 마감…올해 25% 곤두박질</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>"새해엔 나만의 경제노트 한번 써 보세요"</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>당국 "노바백스 백신 내달 국내 사용허가 전망…1·2차접종에 활용"</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>"연내 10만달러 간다더니"…비트코인의 배신?</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>[스타워즈] 메리츠증권 손지웅, 누적수익률 40% 달성…최종 '우승'</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>인천시, 만 35~39세 청년에 월 최대 20만원 임차료 지원</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>올해 연말도 홈파티가 대세···스마트한 가전제품들 인기</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>美 피스컬노트, '대체데이터' 에이셀테크놀로지스 인수 계약</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>"포스트 코로나 시대 관광객 유치" 온다-위홈 맞손</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>가스공사, 115만t 규모 개별요금제 천연가스 매매계약 체결</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>정혁훈 농업전문기자, 농식품부 장관상 수상</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>박현주재단 해외교환 장학생 지금까지 누적 6018명 지원</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>"3기 신도시 입주 너무 늦어…내년에 내 집 마련 서둘러야"</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>대신증권, 42억 규모 자기주식 처분</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>포스코-경동나비엔 따뜻한 동행…취약계층 보일러 무상 교체</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Industrial production rises 5.9 percent in November</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Top business stories of 2021</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>국토부, 대구 등 집값 하락 지역에 “조정대상지역 해제 없다”</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>현대바이오 CMG제약 '비타브리드' 국내 독점 판매</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>정부, AI 학습용 데이터 구축·플랫폼종사자 고용보험 적용</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>농식품부, 낙농진흥회 의사결정체계 개편 나선다</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>'중국 반도체 항모' 칭화유니, 결국 중국 정부가 회생 모색</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>정부 “2050년까지 플라스틱 100% 바이오 원료로 대체”…순환경제 강화 나선다</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>대한방직, 사내근로복지기금 출연 위해 자사주 10억 처분</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>[인사]금융감독원</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>보스아고라, 피스트 트러스트와 업무 협약 체결</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>올해 개인 순매수 상위 10종목 8.5% 손실…팔아치운 종목은?</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>"한잔인데 뭘"하다 최대 1억7천만원…음주운전 본인부담금 높인다</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>탄광맥주, 탄광촌 저소득 아동 위한 사회공헌 활동 전개</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>위두커뮤니케이션즈, 볼류메트릭 '예체능 온라인 콘텐츠' 개발</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>LH 일반정규직 250명 신규 채용…"지역인재 기회 보장"</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>양주석 회장, 잘나가던 30대말 휠체어 신세, 의료기기 제조로 재활· 재기</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>손병두 이사장 "올해 코스피 최고치, IPO 20조, 코스닥 1500개사 달성"</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>하이투자증권, 신임 홍원식 대표이사 선임</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>일본 증시, 오미크론 우려 속 하락 마감…닛케이 0.4%↓</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>한은 “탄소중립, 은행 건전성 악화...BIS비율 최대 5.8%p 하락”</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>"갈수록 교묘해지는 온라인 쇼핑몰 가품 다 찾아낸다"</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>한돈자조금, ‘고기, 원칙’과 한돈인증점 업무협약 체결</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>올해 글로벌 수소차 판매 2배 늘어…판매량 '1위'는 현대차</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>`아듀 2021`…특징주 TOP5로 본 올해의 증시</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>꼴찌 겨우 면한 코스피, 올 상승률 G20 1위→18위 추락</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>'소부장 중소기업' 상용화에 학·연 기술 보탠다</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>L당 1100원 原乳, 가공용은 900원으로</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>코스피 '쥐락펴락'…증시 뒤흔드는 외국인의 정체는</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>[인사]농촌진흥청</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>[인사]모아저축은행</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>[신년사]김현수 농식품부 장관 "농업, 데이터 기반 첨단산업 변모"</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>금감원, 대대적 조직개편 단행, 감독총괄조직 재구성</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>11월 생산 3.2% 늘었지만 소비는 1.9%↓</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>SM그룹, ‘안성 우방아이유쉘 에스티지’ 청약 돌입</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>[신년사] 강삼권 벤처기업협회장 "혁신 창업생태계 조성 노력"</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>NH손보 최문섭 대표 취임</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>섬개연, PET병 재활용 그린섬유사업 추진</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>[인사] 광주지방국세청</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>건설 톱10 상장기업 올해 주가·실적 희비… 삼성물산 17%↓</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>재계 불어닥친 ‘ESG’ 광풍, 환경투자 급증···’무늬만 ESG’ 논란도 [키워드로 보는 2021 산업 ⑤]</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>금감원, 사전예방 감독 강화 조직개편 및 부서장 인사 실시</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>[인사] 금융감독원</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>국토부, 현행 규제지역 유지…대구·세종 조정대상지역 해제 유보</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>SK하이닉스, 전 직원에 특별성과급 300% 지급</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>부동산 규제지역 현행대로 유지…대구-창원 등 해제건의 수용 안해</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>K-택소노미, 결국 원전 뺐다</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>고승범 "과도한 부채가 금융안정 해치는 일 막겠다"</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>은행, 디지털 바람…새 임원 절반 '테크전문가'</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>네이버페이 이용자 100여명 자산정보 유출…금융당국, 경위 점검</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>[인사]생명보험협회</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>[단독] "대부업 대출 문턱보다 더 높다" 저축은행 대출 승인율 6%대</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>현대차 인증중고차 나오나…내달 생계형 적합업종 심의위 개최(종합)</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>금감원, 조직개편 실시… "사전예방적 금융감독 강화"</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>최윤범 고려아연 부회장 "신재생에너지·그린수소로 탈탄소시대 이끌 것"</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>지앤넷, 자생한방병원에서 실손보험금 청구 간소화 서비스 시작</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>녹색분류에 원전 배제…한수원 이어 산업부도 재검토 요청</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>3배 레버리지 ETF `뭉칫돈`…서학개미들 아찔한 베팅 [오민지의글로벌ETF가이드]</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>위드코로나 영향...11월 면세점 매출 1조7000억대 '반짝 회복'</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>[여명]  ‘부동산 잔혹사’ 되풀이하지 않으려면</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>금감원 대규모 조직개편 단행…부서장 90% 교체</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>LG전자, 퓨리케어 에어로타워 오브제컬렉션 출시 기념 팝업스토어 운영</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>하이투자증권, 홍원식 대표 신규 선임</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>[인사] 금감원</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>내년 집값 `상저하고`…하반기 전세불안 영향</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>은행 가계대출 영업 본격 재개 예고, 관리는 더 깐깐해진다</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>한은 충북본부, 설 앞두고 특별자금 150억원 지원</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>범어4동 '가로주택정비 vs 재개발' 주민들 신경전…'난개발' 우려까지</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>운영 중단 위기에 이은 이사장 사임까지 ‘혼수상태’ 패션연…관리기관은 나몰라라</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>‘금융위원장 미션’ 언급한 고승범 “부동산으로 자본 안흐르게”</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>[기자의 눈] 기업 현실 무시한 중대재해법</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>[MK라씨로] 외국인, 메타버스·VR 관련주 보유 늘려</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>국토부 "집값 안정세 자신 못한다"…대구·동두천 규제지역 유지</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>국토부, 조정대상지역 등 현행 규제지역 유지…"내년 상반기 재논의"</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>[Bull&amp;Bear;] 전기차 모멘텀 타고 디아이씨 급등</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>[인사] 한국가스안전공사</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2050 절반 해외직구 이용... 이용금액 4조9000억 '사상 최대'</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>[표] 주요 증시 지표 (12월 30일)</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>'오세훈표 신속 재건축' 판 커졌다…압구정 등 18곳 추진(종합)</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>동원F&amp;B;도 컵커피 가격 인상…hy 야쿠르트 가격도 오른다</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>레뱅드매일, 임인년 호랑이 와인 세트 출시</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>개미 울리는 물적분할에 고승범 "법적 측면 포함 대책 검토"</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>美 OTT ‘쩐의전쟁’, 넷플릭스·디즈니 내년에 136조 퍼붓는다</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>미리보는 CES...글로벌 ICT 트렌드 현주소</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>환경부, 폐교 활용 환경체험교육관 추진…2024년 개관</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>최종 임상 단계 진입한 백신 후보물질은 44종</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>김지형 삼성준법위원장 "위원회는 백신…아프고 싫어도 맞아야"</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>골프존문화재단, 11년 연속 지역 소외계층 아동 3,800여 명에게 연말 선물 전달</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>코스피 마지막 거래일 2,970선 마감‥삼성전자 이틀째 하락 흐름</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>국토부, 현행 규제지역 유지... 내년 상반기 해제·신규지정 재논의</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>[마켓인]국민연금 10월 말 수익률 7.63%…해외주식 27%</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:02</t>
         </is>
       </c>
     </row>

--- a/backend/data/101.xlsx
+++ b/backend/data/101.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B181"/>
+  <dimension ref="A1:B221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,2160 +448,2640 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>"임직원 여러분 고생하셨습니다" 올해도 랜선 종무식</t>
+          <t>볼보코리아, 분당 판교 서비스센터 확장 이전</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021.12.30 17:33</t>
+          <t>2021.12.30 18:03</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>갤러리아 광교, 베르사유 건축상 쇼핑몰부문 ‘세계1위’</t>
+          <t>SK하이닉스, 인텔 다롄공장·SSD사업 넘겨받아</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021.12.30 17:33</t>
+          <t>2021.12.30 18:03</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SPC 장남 허진수, 사장 승진… 해외진출 박차</t>
+          <t>"불공정거래 꼼짝 마!"... 한국거래소, 新 시장감시체계 가동</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021.12.30 17:33</t>
+          <t>2021.12.30 18:03</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>아워홈 1년만에 흑자전환… 구지은의 혁신 통했다</t>
+          <t>中企-대학 손잡고 석·박사급 AI인재 키운다</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021.12.30 17:33</t>
+          <t>2021.12.30 18:03</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>유럽 천연가스 대란에 비료株 뛰네</t>
+          <t>지코, 벡셀 흡수합병</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021.12.30 17:33</t>
+          <t>2021.12.30 18:03</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>배달·비건 확 키웠다… 코로나 위기 속 돌파구 찾은 ‘K 먹거리’</t>
+          <t>속도는 SKT, 공공시설은 KT, 동영상은 LG U+ 돋보였다</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021.12.30 17:33</t>
+          <t>2021.12.30 18:02</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[인사] DGB금융그룹</t>
+          <t>"택시기사 등 업계와 공존" 카카오모빌리티 상생 길 넓힌다</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021.12.30 17:33</t>
+          <t>2021.12.30 18:02</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>The market loved the metaverse in 2021</t>
+          <t>서울 아파트 1채 팔면 경북서 6채 산다</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2021.12.30 17:32</t>
+          <t>2021.12.30 18:02</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>'음파 쐬니 잠이 솔솔'..에보소닉, 슬립테크 배게 CES 론칭</t>
+          <t>새해부터 65세 이상 고객에 ATM 수수료 '면제'</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2021.12.30 17:32</t>
+          <t>2021.12.30 18:01</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>코웨이, 국내 최초 '물맛품질인증' 획득…"정수기 물맛 인정받아"</t>
+          <t>SK매직, 가전업계 첫 '리사이클링 센터' 짓는다</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2021.12.30 17:32</t>
+          <t>2021.12.30 18:01</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>작년 울산 기업활동 지표 전반적 악화…"코로나 직격탄 영향"</t>
+          <t>日증시 하락 마감..닛케이 28791.71(-0.40%)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021.12.30 17:32</t>
+          <t>2021.12.30 18:01</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>'아듀 2021' 거래소, 폐장식…"코스피 사상 최고치 성과"</t>
+          <t>한화솔루션, 삼성전기 통신모듈사업 일부 인수</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021.12.30 17:32</t>
+          <t>2021.12.30 18:00</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>잠잠하던 '국산신약' 올해는 풍년…4개 추가돼 34호까지</t>
+          <t>석유화학업계 친환경 패션트렌드 주도... 폐페트병으로 만든 가방·신발 큰 호응</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021.12.30 17:32</t>
+          <t>2021.12.30 18:00</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[인사] 금융감독원</t>
+          <t>[비트코인 지금] 5700만원대로 소폭 반등했지만…오미크론, 하락세 원인으로 지목</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021.12.30 17:31</t>
+          <t>2021.12.30 18:00</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>"어디가 더 빠를까"… 가구 vs 이커머스 '배송 혈투'</t>
+          <t>포스코가 키운 13개 유망 스타트업, 내달 CES서 데뷔</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021.12.30 17:31</t>
+          <t>2021.12.30 18:00</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>셀트리온 '유플라이마' 캐나다 진출</t>
+          <t>[인사]KOTRA</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021.12.30 17:31</t>
+          <t>2021.12.30 18:00</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>강북·도봉구도…서울 집값 1억씩 '뚝'</t>
+          <t>연말마다 ‘대소동’ 실손보험, 무리한 가격 통제 언제까지?</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021.12.30 17:31</t>
+          <t>2021.12.30 18:00</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>GC녹십자헬스케어 새 이름 'GC케어'... "헬스케어 IT 플랫폼 기업으로 도약"</t>
+          <t>트위니 물류 로봇…내달 CES서 공개</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2021.12.30 17:31</t>
+          <t>2021.12.30 18:00</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>웰스 공기청정기 '건강주택대상' 종합대상 수상</t>
+          <t>음주·마약 운전사고 내면, '억' 소리 난다</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2021.12.30 17:31</t>
+          <t>2021.12.30 18:00</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>오세훈표 빠른 재건축…'강남 대장주' 은마 제외</t>
+          <t>부국증권우 등 저유동성 9개 종목, 내년 '단일가 매매' 적용</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021.12.30 17:31</t>
+          <t>2021.12.30 17:59</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>보안업체 홍보영상이 이렇게 재밌을 줄이야</t>
+          <t>'스마트홈 키친의 새 기준' LG씽큐 레시피 美 출시</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2021.12.30 17:31</t>
+          <t>2021.12.30 17:59</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>자투리 동전 모아…카카오페이證 펀드에 1조</t>
+          <t>삼성전자, 내년 美 '비스포크 가전 전성시대' 연다</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2021.12.30 17:31</t>
+          <t>2021.12.30 17:59</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>코로나에도 해외수주 선방…2년 연속 300억弗 돌파</t>
+          <t>국민이 원하는 '국가발전 프로젝트'는? 내달 2일 商議 아이디어 결승전 보세요</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2021.12.30 17:31</t>
+          <t>2021.12.30 17:59</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>충북 보은군 등 4곳…고령자 복지주택 짓는다</t>
+          <t>김지형 삼성 준법위원장 "준법위는 백신…건강한 긴장 관계 이어가야"</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2021.12.30 17:31</t>
+          <t>2021.12.30 17:59</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>영국 직장연금펀드, 5개 화석 연료 기업 지분 매각</t>
+          <t>물 안쓰는 '친환경 CO₂세탁기' 나온다</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2021.12.30 17:31</t>
+          <t>2021.12.30 17:59</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>국산 34호 신약 탄생…대웅제약 신약 품목허가 획득</t>
+          <t>SK, 인텔 낸드 인수 1단계 완료…美 SSD운영 솔리다임 설립</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2021.12.30 17:31</t>
+          <t>2021.12.30 17:59</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>강남 양재동 일대 93만㎡ ICT 특정개발진흥지구로</t>
+          <t>Lackluster last day of 2021 trading ends slightly down</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2021.12.30 17:31</t>
+          <t>2021.12.30 17:59</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>어떻게 하면 ‘소통’하는 조직을 만들 수 있을까[김한솔의 경영 전략]</t>
+          <t>차남 복귀 이어 장남 사장 승진…SPC, 형제간 후계자 경쟁 본격화하나</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2021.12.30 17:31</t>
+          <t>2021.12.30 17:59</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>범블·오틀리·로빈후드…美 상장 후 줄줄이 하락</t>
+          <t>에스파·이승기·김연아·공유까지… 국민은행, 광고모델 총출동 영상 공개</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2021.12.30 17:31</t>
+          <t>2021.12.30 17:58</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>[기자수첩]대한항공-아시아나 합병 교각살우 안되길</t>
+          <t>에스원, SNS 콘텐츠로 MZ세대 주목..."딱딱한 보안업, 편견 깬다"</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2021.12.30 17:31</t>
+          <t>2021.12.30 17:58</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>금감원, 사전예방 감독 강화에 90% 부서장 교체까지</t>
+          <t>급하게 등본 필요할 땐 세븐일레븐으로 가세요</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2021.12.30 17:31</t>
+          <t>2021.12.30 17:58</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>금감원 부서장 90% 변경…대규모 인사·조직개편</t>
+          <t>비트코인 5700만원대서 횡보…연말 ‘산타랠리’는 없었다</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2021.12.30 17:30</t>
+          <t>2021.12.30 17:58</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>금감원 조직 개편·인사...디지털 역량 강화, 부서장 80% 변경</t>
+          <t>[인사]대한무역투자진흥공사</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2021.12.30 17:30</t>
+          <t>2021.12.30 17:58</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>네이버페이 고객 100여명 계좌·카드 정보 줄줄 샜다</t>
+          <t>[표]유형별 펀드 자금 동향(12월 28일)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2021.12.30 17:30</t>
+          <t>2021.12.30 17:58</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>[인사]모아저축은행</t>
+          <t>"정년연장, 고령화사회 '만병통치약' 아냐…연공서열식 임금체계 개선부터"</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2021.12.30 17:29</t>
+          <t>2021.12.30 17:57</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>코스닥, 21년만에 '천스닥' 달성…동학개미 올해 11兆 순매수</t>
+          <t>대학이 ‘창업 최적지’라는데…정작 창업자 10명 중 7명은 “후회”</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2021.12.30 17:29</t>
+          <t>2021.12.30 17:57</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>65세 이상 내년부터 ATM 수수료 면제</t>
+          <t>'수출통제 백서' 내놓은 중국, 전략물자 수출 차단 근거되나</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2021.12.30 17:29</t>
+          <t>2021.12.30 17:57</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>[포토] 금융과 미술의 만남</t>
+          <t>파나소닉코리아, 6중날 전기면도기 출시</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2021.12.30 17:29</t>
+          <t>2021.12.30 17:57</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>신한카드, CBDC 특허 취득…디지털화폐 기술 연구개발</t>
+          <t>롯데푸드, 국산 캔햄…첫 무역 흑자 '1등 공신'</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2021.12.30 17:29</t>
+          <t>2021.12.30 17:57</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>KB금융, 플랫폼 기업에 3000억 투자</t>
+          <t>[인사] 부산지방국세청</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2021.12.30 17:29</t>
+          <t>2021.12.30 17:57</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>[포토뉴스] 킹스베리·두리향 딸기 등 이색 과일 선봬는 마트</t>
+          <t>SK 전자계열 CTO 영입·교체 바람···‘반도체 기술 경쟁력 강화’</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2021.12.30 17:29</t>
+          <t>2021.12.30 17:57</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>김지형 "삼성 준법위는 백신, 아프고 싫어도 맞아야"</t>
+          <t>문대통령 '탈원전' 쐐기박고 떠난다…원전수출 자금조달 먹구름</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2021.12.30 17:29</t>
+          <t>2021.12.30 17:57</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>한국동서발전, 정보공개 평가 4년 연속 '최우수기관' 선정</t>
+          <t>금감원, 사전예방적 감독체계 조직개편…부서장 90% 물갈이</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2021.12.30 17:29</t>
+          <t>2021.12.30 17:56</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SK '인텔 낸드' 독립 경영…"인재 이탈 막고 시장 가치 올리겠다"</t>
+          <t>공정위, 10년 장기 운영 편의점에 '계약 갱신 허용'... 노력 기울일 것</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2021.12.30 17:29</t>
+          <t>2021.12.30 17:56</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>중개형ISA 가입자 200만 돌파</t>
+          <t>하이투자증권, 신임 홍원식 대표이사 선임</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2021.12.30 17:29</t>
+          <t>2021.12.30 17:56</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>[포토뉴스]신년 맞이 할인 행사에 나서는 유통업계</t>
+          <t>[포토] "해외여행 가고 싶어요" "청년 일자리 만들어주세요"</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2021.12.30 17:29</t>
+          <t>2021.12.30 17:56</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>바이오젠 인수 '부인’한 삼바…‘바이오시밀러 외도’ 결론은 미지수로</t>
+          <t>한아이덴티티코리아,  금융포인트 분야 2년 연속 수상</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2021.12.30 17:29</t>
+          <t>2021.12.30 17:56</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>[표] 외국환율고시표 (12월 30일)</t>
+          <t>바이낸스코인 올해 수익률 1372%…비트코인·이더리움 제쳐</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2021.12.30 17:29</t>
+          <t>2021.12.30 17:56</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>[신년사]박병홍 농진청장 "여건 맞게 특화작목 집중 육성…지역농업 활성화"</t>
+          <t>[인사]DGB금융그룹</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2021.12.30 17:28</t>
+          <t>2021.12.30 17:56</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>메모리에 AI기능 이식…차세대 반도체로 또 앞서간다</t>
+          <t>의사·변호사 전문직 신용대출 내년부터 연소득 이내로 제한</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2021.12.30 17:28</t>
+          <t>2021.12.30 17:56</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>상상인 계열 저축은행, 업계 최초로 주4.5일제 도입</t>
+          <t>중개형ISA 2백만명 돌파…개별주식 투자 가능 인기</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2021.12.30 17:28</t>
+          <t>2021.12.30 17:56</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>"최첨단 D램 전력 소비 13% 줄이고…SSD 수명 4배늘려 초격차 더 벌려"</t>
+          <t>[2021 증시결산] 코스피 3.6% 올라 G20 18위…시총 2천200조원 넘어</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2021.12.30 17:28</t>
+          <t>2021.12.30 17:55</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>미카도스시, 취약계층에 연탄 1만여 장 기부</t>
+          <t>신현준 신정원장 "핵심 데이터 인프라·플랫폼 역할 수행하겠다"</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2021.12.30 17:28</t>
+          <t>2021.12.30 17:55</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>내년부터 우회전 후 횡단보도 안 서면 보험료 할증</t>
+          <t>[인사]국세청, 팀장급(복수직 서기관 및 사무관) 정기 전보</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2021.12.30 17:27</t>
+          <t>2021.12.30 17:55</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>마약·약물 운전 사고 시 최대 1억 5천만 원 부담금</t>
+          <t>아워홈 1년 만에 흑자 전환…구지은號 '혁신 경영' 통했다</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2021.12.30 17:27</t>
+          <t>2021.12.30 17:55</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>"상승폭 줄겠지만…내년에도 집값 오를 것"</t>
+          <t>가스公, 115만톤 규모 개별요금제 천연가스 매매계약</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2021.12.30 17:27</t>
+          <t>2021.12.30 17:55</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>수수료 현실화 하는 쿠팡이츠...건당 1,000원 프로모션 종료</t>
+          <t>낙농가 반대 여전한데··· 原乳 가격제도 개편 이뤄질까</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2021.12.30 17:27</t>
+          <t>2021.12.30 17:54</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>바이오젠 인수설 삼바, 하루새 주가 출렁...일부 보도에 급등, 회사측 부인에 제자리</t>
+          <t>소음 적고, 배출되는 물로 씻고…"수소청소트럭이 삶의 질 높여"</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2021.12.30 17:27</t>
+          <t>2021.12.30 17:54</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>삼성·LG전자, 올해 '최대 실적' 예고…관전 포인트는</t>
+          <t>도심복합사업 1차 본 지구 7곳 어디?[그래픽뉴스]</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2021.12.30 17:27</t>
+          <t>2021.12.30 17:54</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>상상인-상상인플러스저축은행, 업계 최초 '주 4.5일제' 도입</t>
+          <t>올해 환율, 1년간 100원 올랐다…“내년 초까지도 달러 강세”</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2021.12.30 17:26</t>
+          <t>2021.12.30 17:54</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SK하이닉스가 품은 인텔낸드 나스닥 직행</t>
+          <t>'전셋값+대출액' 집값보다 많은 임대사업자, 보증보험 가입한다</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2021.12.30 17:26</t>
+          <t>2021.12.30 17:53</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>'건설노무관리' 김반장, 국민연금 가입 기준 확대 맞춰 업데이트</t>
+          <t>퇴임 앞둔 김지형 준법위 위원장 “준법위는 백신역할…아파도 맞아야”</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2021.12.30 17:25</t>
+          <t>2021.12.30 17:53</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>서울 강북구·도봉구 아파트 매매가 하락 전환</t>
+          <t>최윤범 "고려아연, 트로이카 드라이브 건다"</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2021.12.30 17:25</t>
+          <t>2021.12.30 17:53</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>"자생식물을 도시 정원식물로" 국립세종수목원, 보급사업 추진</t>
+          <t>"비호처럼 韓 도약하려면, 차기정부는 기업 도와라"</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2021.12.30 17:25</t>
+          <t>2021.12.30 17:53</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>"소부장 中企 상용화 기술개발"…중기부, 350억원 투입</t>
+          <t>ESG 투자길 막혀 원전 씨마르는 한국…美·EU는 '신중'</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2021.12.30 17:25</t>
+          <t>2021.12.30 17:52</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>신성이엔지, 에스디바이오센서에 토지·건물·태양광발전소 299억 처분</t>
+          <t>한국거래소, TR 2단계 보고 업무 개시</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2021.12.30 17:25</t>
+          <t>2021.12.30 17:52</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>반려견 데리고 가는 스타벅스 매장 생긴다</t>
+          <t>포스코가 키운 벤처 13곳…美 CES서 기술 뽐낸다</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2021.12.30 17:25</t>
+          <t>2021.12.30 17:52</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>자동차·반도체 효과에 11월 생산 3.2%↑…소비는 1.9%↓</t>
+          <t>"서울 내집마련 기회 드디어 오나"…새해 민간분양 7배 늘어난다</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2021.12.30 17:24</t>
+          <t>2021.12.30 17:52</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>&lt;인사&gt;금융감독원</t>
+          <t>2021년 코스피 시장 결산...시가총액 2203조</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2021.12.30 17:24</t>
+          <t>2021.12.30 17:52</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>방역패스 줄이고 거리두기 개편…백신 9천만회분 구매</t>
+          <t>다날핀테크, 페이코인으로 자동차부터 햄버거 구매까지</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2021.12.30 17:24</t>
+          <t>2021.12.30 17:52</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>고승범 “가계부채 관리는 계속…실수요자는 보호할 것”</t>
+          <t>SK바이오사이언스, 대표 백신개발사 '우뚝'… 공모가 대비 수익률 '244%'</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2021.12.30 17:24</t>
+          <t>2021.12.30 17:51</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Fish prices going up higher than inflation</t>
+          <t>"해외서도 24시간 모니터링"… 신한은행, '글로벌 통합보안관제 시스템' 구축</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2021.12.30 17:23</t>
+          <t>2021.12.30 17:51</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>"공급량 턱없이 부족…서울 아파트 불패 5~6년간 지속된다"</t>
+          <t>올해 코스피 시총 2200조원 돌파로 마감</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2021.12.30 17:23</t>
+          <t>2021.12.30 17:51</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>中企-대학 손잡고 석·박사급 AI 인재 키운다</t>
+          <t>오피스텔 광풍 새해는 "글쎄"</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2021.12.30 17:23</t>
+          <t>2021.12.30 17:51</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>[특징주] LG화학, 61만5000원 마감…올해 25% 곤두박질</t>
+          <t>2050년 탄소중립땐 고탄소산업 주가 반토막</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2021.12.30 17:23</t>
+          <t>2021.12.30 17:51</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>"새해엔 나만의 경제노트 한번 써 보세요"</t>
+          <t>멕시코, 원유 수출 중단…정유 4사 "대체 수입처 확보"</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2021.12.30 17:23</t>
+          <t>2021.12.30 17:51</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>당국 "노바백스 백신 내달 국내 사용허가 전망…1·2차접종에 활용"</t>
+          <t>김학도 중진공 이사장 “ESG 등 중기 경영환경 변화 신속 지원”</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2021.12.30 17:23</t>
+          <t>2021.12.30 17:51</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>"연내 10만달러 간다더니"…비트코인의 배신?</t>
+          <t>한국거래소, 2022년도 단일가매매 적용대상 종목 확정</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2021.12.30 17:23</t>
+          <t>2021.12.30 17:51</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>[스타워즈] 메리츠증권 손지웅, 누적수익률 40% 달성…최종 '우승'</t>
+          <t>[신축년 달군 신가전]④LG가 '틔운' 실내정원</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2021.12.30 17:23</t>
+          <t>2021.12.30 17:51</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>인천시, 만 35~39세 청년에 월 최대 20만원 임차료 지원</t>
+          <t>금감원 조직개편...부서장 90% 교체</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2021.12.30 17:23</t>
+          <t>2021.12.30 17:50</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>올해 연말도 홈파티가 대세···스마트한 가전제품들 인기</t>
+          <t>DL이앤씨, 러시아 1.6兆 플랜트 수주</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2021.12.30 17:23</t>
+          <t>2021.12.30 17:50</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>美 피스컬노트, '대체데이터' 에이셀테크놀로지스 인수 계약</t>
+          <t>여의도·압구정 '오세훈표 재건축' 계획 나온다</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2021.12.30 17:22</t>
+          <t>2021.12.30 17:50</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>"포스트 코로나 시대 관광객 유치" 온다-위홈 맞손</t>
+          <t>지코, 주식회사 벡셀 흡수합병</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2021.12.30 17:22</t>
+          <t>2021.12.30 17:50</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>가스공사, 115만t 규모 개별요금제 천연가스 매매계약 체결</t>
+          <t>'위드 코로나'에도...11월 소비 줄었다</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2021.12.30 17:22</t>
+          <t>2021.12.30 17:50</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>정혁훈 농업전문기자, 농식품부 장관상 수상</t>
+          <t>한국거래소, 내년 단일가매매 적용 종목 9개 확정</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2021.12.30 17:22</t>
+          <t>2021.12.30 17:50</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>박현주재단 해외교환 장학생 지금까지 누적 6018명 지원</t>
+          <t>hy, '기부하는 건강계단' 누적 800만명 돌파…누적 기부금액 3억원</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2021.12.30 17:22</t>
+          <t>2021.12.30 17:50</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>"3기 신도시 입주 너무 늦어…내년에 내 집 마련 서둘러야"</t>
+          <t>올해 가장 많이 오른 증권주는?… 한화투자증권, 191%↑</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2021.12.30 17:22</t>
+          <t>2021.12.30 17:49</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>대신증권, 42억 규모 자기주식 처분</t>
+          <t>하이투자증권, 신임 홍원식 대표이사 선임</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2021.12.30 17:22</t>
+          <t>2021.12.30 17:49</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>포스코-경동나비엔 따뜻한 동행…취약계층 보일러 무상 교체</t>
+          <t>허영인 SPC회장 장남 사장 승진…해외법인에 현지인 CEO</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2021.12.30 17:21</t>
+          <t>2021.12.30 17:49</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Industrial production rises 5.9 percent in November</t>
+          <t>창동주공 3단지 재건축 '시동'…2856가구 예비안전진단 통과</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2021.12.30 17:21</t>
+          <t>2021.12.30 17:49</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Top business stories of 2021</t>
+          <t>거래소 폐장식…손병두 이사장 "삼천피·천스닥 의미있는 성과"</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2021.12.30 17:21</t>
+          <t>2021.12.30 17:49</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>국토부, 대구 등 집값 하락 지역에 “조정대상지역 해제 없다”</t>
+          <t>[2021년 총결산 리그테이블] 김앤장 올해도 법률자문 선두 수성…부티크 로펌도 '두각'</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2021.12.30 17:21</t>
+          <t>2021.12.30 17:49</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>현대바이오 CMG제약 '비타브리드' 국내 독점 판매</t>
+          <t>[2021년 총결산 리그테이블] '잇단 빅딜' 삼일PwC, M&amp;A; 회계자문 1위</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2021.12.30 17:21</t>
+          <t>2021.12.30 17:49</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>정부, AI 학습용 데이터 구축·플랫폼종사자 고용보험 적용</t>
+          <t>[2021년 총결산 리그테이블] 플랫폼 강자 모건스탠리, M&amp;A; 재무자문 1위</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2021.12.30 17:21</t>
+          <t>2021.12.30 17:49</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>농식품부, 낙농진흥회 의사결정체계 개편 나선다</t>
+          <t>[2021년 총결산 리그테이블] KB증권, 9년 연속 채권발행(DCM) 1위 수성</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2021.12.30 17:20</t>
+          <t>2021.12.30 17:49</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>'중국 반도체 항모' 칭화유니, 결국 중국 정부가 회생 모색</t>
+          <t>“북한강뷰 바라보며 반려견과 산책”…펫파크 갖춘 ‘별다방’ 문 연다</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2021.12.30 17:20</t>
+          <t>2021.12.30 17:49</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>정부 “2050년까지 플라스틱 100% 바이오 원료로 대체”…순환경제 강화 나선다</t>
+          <t>[인사]산업통상자원부</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2021.12.30 17:20</t>
+          <t>2021.12.30 17:48</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>대한방직, 사내근로복지기금 출연 위해 자사주 10억 처분</t>
+          <t>[인사]금융감독원</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2021.12.30 17:20</t>
+          <t>2021.12.30 17:48</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>[인사]금융감독원</t>
+          <t>칠곡군, 내년에도 지역상품권 10％포인트 지원혜택 유지</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2021.12.30 17:20</t>
+          <t>2021.12.30 17:48</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>보스아고라, 피스트 트러스트와 업무 협약 체결</t>
+          <t>[인사]금융감독원</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2021.12.30 17:20</t>
+          <t>2021.12.30 17:48</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>올해 개인 순매수 상위 10종목 8.5% 손실…팔아치운 종목은?</t>
+          <t>약수역 인근 재개발 활기…'도심복합사업' 동의율 넘어</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2021.12.30 17:19</t>
+          <t>2021.12.30 17:48</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>"한잔인데 뭘"하다 최대 1억7천만원…음주운전 본인부담금 높인다</t>
+          <t>車반도체 판매 힘입어…글로벌파운드리스 두달새 40% 급등 [자이앤트월드]</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2021.12.30 17:19</t>
+          <t>2021.12.30 17:48</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>탄광맥주, 탄광촌 저소득 아동 위한 사회공헌 활동 전개</t>
+          <t>머스크, 자사주 거의 다 팔아…테슬라 낙관론 '솔솔'</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2021.12.30 17:19</t>
+          <t>2021.12.30 17:48</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>위두커뮤니케이션즈, 볼류메트릭 '예체능 온라인 콘텐츠' 개발</t>
+          <t>[표] 주요 시세 (12월 30일)</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2021.12.30 17:18</t>
+          <t>2021.12.30 17:48</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>LH 일반정규직 250명 신규 채용…"지역인재 기회 보장"</t>
+          <t>KB금융, 3000억 규모 'KB 디지털 플랫폼 펀드' 설립</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2021.12.30 17:18</t>
+          <t>2021.12.30 17:47</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>양주석 회장, 잘나가던 30대말 휠체어 신세, 의료기기 제조로 재활· 재기</t>
+          <t>인천도 거래잠김… 1억 넘게 낮춘 급매물 속출</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2021.12.30 17:18</t>
+          <t>2021.12.30 17:47</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>손병두 이사장 "올해 코스피 최고치, IPO 20조, 코스닥 1500개사 달성"</t>
+          <t>국내 건설사 해외수주 2년연속 300억불 달성</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2021.12.30 17:18</t>
+          <t>2021.12.30 17:47</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>하이투자증권, 신임 홍원식 대표이사 선임</t>
+          <t>이천~충주 잇는 중부내륙선 ‘KTX이음’ 개통</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2021.12.30 17:17</t>
+          <t>2021.12.30 17:47</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>일본 증시, 오미크론 우려 속 하락 마감…닛케이 0.4%↓</t>
+          <t>오늘의 레이더M 뉴스 (12월 31일)</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2021.12.30 17:17</t>
+          <t>2021.12.30 17:47</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>한은 “탄소중립, 은행 건전성 악화...BIS비율 최대 5.8%p 하락”</t>
+          <t>동원개발, 새 주상복합 브랜드 ' SKY.V '</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2021.12.30 17:17</t>
+          <t>2021.12.30 17:47</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>"갈수록 교묘해지는 온라인 쇼핑몰 가품 다 찾아낸다"</t>
+          <t>애니젠, 15억 규모 공급·연구 용역 계약 체결</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2021.12.30 17:17</t>
+          <t>2021.12.30 17:47</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>한돈자조금, ‘고기, 원칙’과 한돈인증점 업무협약 체결</t>
+          <t>조성욱 공정위원장 “구글 앱마켓 갑질 전원회의 심의한다”</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2021.12.30 17:17</t>
+          <t>2021.12.30 17:47</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>올해 글로벌 수소차 판매 2배 늘어…판매량 '1위'는 현대차</t>
+          <t>올해 마지막 거래일 원/달러 환율 2.3원 오른 1,188.8원 마감</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2021.12.30 17:17</t>
+          <t>2021.12.30 17:46</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>`아듀 2021`…특징주 TOP5로 본 올해의 증시</t>
+          <t>기준금리 인상에 국고채 금리도 급등…3년물 올해 82bp↑</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:46</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>꼴찌 겨우 면한 코스피, 올 상승률 G20 1위→18위 추락</t>
+          <t>DL이앤씨, 1조6천억 러시아 가스화학 플랜트 수주</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:46</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>'소부장 중소기업' 상용화에 학·연 기술 보탠다</t>
+          <t>물 필요 없는 세탁기 나온다…LG전자 "2년간 시험 운영"</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:46</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>L당 1100원 原乳, 가공용은 900원으로</t>
+          <t>서울 아파트 한 채 팔면…경북에선 6.6채 산다</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:46</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>코스피 '쥐락펴락'…증시 뒤흔드는 외국인의 정체는</t>
+          <t>[인사]산업통상자원부</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:46</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>[인사]농촌진흥청</t>
+          <t>靑 NSC "北 전원회의 개최 등 한반도 동향 면밀 점검"</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:45</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>[인사]모아저축은행</t>
+          <t>[인사] 금융감독원</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:45</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>[신년사]김현수 농식품부 장관 "농업, 데이터 기반 첨단산업 변모"</t>
+          <t>내년 서울 등 8곳 ‘다회용기 음식배달’ 시범사업</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2021.12.30 17:15</t>
+          <t>2021.12.30 17:45</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>금감원, 대대적 조직개편 단행, 감독총괄조직 재구성</t>
+          <t>‘워라밸’ 최고는 서울… 꼴찌는 강원</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2021.12.30 17:15</t>
+          <t>2021.12.30 17:45</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>11월 생산 3.2% 늘었지만 소비는 1.9%↓</t>
+          <t>원유 용도별 차등가격제 도입… 낙농가 합의없이 강행되나</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2021.12.30 17:15</t>
+          <t>2021.12.30 17:45</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>SM그룹, ‘안성 우방아이유쉘 에스티지’ 청약 돌입</t>
+          <t>용산 철도부지에 대학생 기숙사 750명 수용…2024년 문열어</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2021.12.30 17:15</t>
+          <t>2021.12.30 17:45</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>[신년사] 강삼권 벤처기업협회장 "혁신 창업생태계 조성 노력"</t>
+          <t>식어가는 아파트 시장…강북-도봉구도 1년 7개월 만에 하락전환</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2021.12.30 17:14</t>
+          <t>2021.12.30 17:45</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>NH손보 최문섭 대표 취임</t>
+          <t>[인사] KOTRA(코트라)</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2021.12.30 17:14</t>
+          <t>2021.12.30 17:44</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>섬개연, PET병 재활용 그린섬유사업 추진</t>
+          <t>은평 이어 강북·도봉구도 하락세로 전환</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2021.12.30 17:13</t>
+          <t>2021.12.30 17:44</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>[인사] 광주지방국세청</t>
+          <t>하이證, 홍원식 신임 대표이사 선임</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2021.12.30 17:13</t>
+          <t>2021.12.30 17:43</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>건설 톱10 상장기업 올해 주가·실적 희비… 삼성물산 17%↓</t>
+          <t>개별주식 투자해 대박나도 비과세…동학개미 열광</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2021.12.30 17:13</t>
+          <t>2021.12.30 17:43</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>재계 불어닥친 ‘ESG’ 광풍, 환경투자 급증···’무늬만 ESG’ 논란도 [키워드로 보는 2021 산업 ⑤]</t>
+          <t>메리츠證, 개인·법인 영업 키운다</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2021.12.30 17:13</t>
+          <t>2021.12.30 17:43</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>금감원, 사전예방 감독 강화 조직개편 및 부서장 인사 실시</t>
+          <t>[유가증권시장 공시] 한국가스공사 / 동부건설 / DL이앤씨 등</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2021.12.30 17:13</t>
+          <t>2021.12.30 17:43</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>[인사] 금융감독원</t>
+          <t>집값 최대 변수는 대선…금리·DSR규제 順</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2021.12.30 17:13</t>
+          <t>2021.12.30 17:43</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>국토부, 현행 규제지역 유지…대구·세종 조정대상지역 해제 유보</t>
+          <t>[코스닥 공시] 에스엠코어 / 동아엘텍 / 엔케이맥스</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2021.12.30 17:13</t>
+          <t>2021.12.30 17:43</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>SK하이닉스, 전 직원에 특별성과급 300% 지급</t>
+          <t>올해 마지막 공모주 래몽래인, 코스닥 상장 첫 날 7% 하락 마감</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2021.12.30 17:13</t>
+          <t>2021.12.30 17:43</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>부동산 규제지역 현행대로 유지…대구-창원 등 해제건의 수용 안해</t>
+          <t>유연탄 값 급등 … 내년 초 시멘트 대란 조짐</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2021.12.30 17:12</t>
+          <t>2021.12.30 17:43</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>K-택소노미, 결국 원전 뺐다</t>
+          <t>[인사]KOTRA</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2021.12.30 17:12</t>
+          <t>2021.12.30 17:43</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>고승범 "과도한 부채가 금융안정 해치는 일 막겠다"</t>
+          <t>개미 올해 66조 샀지만…삼천피 못지켜</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2021.12.30 17:12</t>
+          <t>2021.12.30 17:43</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>은행, 디지털 바람…새 임원 절반 '테크전문가'</t>
+          <t>'삼천피' 못찍은 2021 증시…그래도 '천스닥'은 지켰다</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2021.12.30 17:12</t>
+          <t>2021.12.30 17:42</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>네이버페이 이용자 100여명 자산정보 유출…금융당국, 경위 점검</t>
+          <t>아영FBC, 싱글몰트샵 롯데百 잠실점에 열어</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2021.12.30 17:12</t>
+          <t>2021.12.30 17:42</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>[인사]생명보험협회</t>
+          <t>ISA 가입자 300만명 돌파…일임형 수익률 1위 ‘메리츠증권’</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2021.12.30 17:12</t>
+          <t>2021.12.30 17:42</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>[단독] "대부업 대출 문턱보다 더 높다" 저축은행 대출 승인율 6%대</t>
+          <t>가스公, 115만톤 규모 천연가스 매매계약 체결</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2021.12.30 17:12</t>
+          <t>2021.12.30 17:41</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>현대차 인증중고차 나오나…내달 생계형 적합업종 심의위 개최(종합)</t>
+          <t>"文 부동산정책 전면 수정해야…세제완화 시급"</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2021.12.30 17:11</t>
+          <t>2021.12.30 17:41</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>금감원, 조직개편 실시… "사전예방적 금융감독 강화"</t>
+          <t>주택 연구기관들 "내년 집값 2~5% 가량 상승할 것"</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2021.12.30 17:11</t>
+          <t>2021.12.30 17:41</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>최윤범 고려아연 부회장 "신재생에너지·그린수소로 탈탄소시대 이끌 것"</t>
+          <t>[인사]DGB금융그룹 2022 상반기 정기인사</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2021.12.30 17:10</t>
+          <t>2021.12.30 17:41</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>지앤넷, 자생한방병원에서 실손보험금 청구 간소화 서비스 시작</t>
+          <t>與 추경 편성 공식화…국고채 금리 장기물 중심 급등</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2021.12.30 17:10</t>
+          <t>2021.12.30 17:40</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>녹색분류에 원전 배제…한수원 이어 산업부도 재검토 요청</t>
+          <t>루원, 여가부 예비사회적기업 선정.."경단녀 자립 지원"</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2021.12.30 17:10</t>
+          <t>2021.12.30 17:40</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>3배 레버리지 ETF `뭉칫돈`…서학개미들 아찔한 베팅 [오민지의글로벌ETF가이드]</t>
+          <t>현대차 아산공장, 내년 1월 문 닫고 전기차 생산 준비</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2021.12.30 17:09</t>
+          <t>2021.12.30 17:40</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>위드코로나 영향...11월 면세점 매출 1조7000억대 '반짝 회복'</t>
+          <t>1억 오디오, 1000만원 술… 편의점 '초고가 설선물' 경쟁</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2021.12.30 17:09</t>
+          <t>2021.12.30 17:40</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>[여명]  ‘부동산 잔혹사’ 되풀이하지 않으려면</t>
+          <t>"아차! 하면 감옥행"…유해성 없는 제품도 중대재해땐 CEO 처벌 논란</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2021.12.30 17:09</t>
+          <t>2021.12.30 17:40</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>금감원 대규모 조직개편 단행…부서장 90% 교체</t>
+          <t>한국노총, 3년만에 민주노총 제치고 최대 노조 탈환</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2021.12.30 17:09</t>
+          <t>2021.12.30 17:40</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>LG전자, 퓨리케어 에어로타워 오브제컬렉션 출시 기념 팝업스토어 운영</t>
+          <t>동진쎄미켐, 2차전지 소재 날개 달고 '훨훨'</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2021.12.30 17:09</t>
+          <t>2021.12.30 17:40</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>하이투자증권, 홍원식 대표 신규 선임</t>
+          <t>농식품부 "치즈·버터용 우유 가격 맘대로 못올려"</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2021.12.30 17:09</t>
+          <t>2021.12.30 17:40</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>[인사] 금감원</t>
+          <t>시장감시 체계 확 바꾼 거래소…"불공정거래 꼼짝마"</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2021.12.30 17:09</t>
+          <t>2021.12.30 17:40</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>내년 집값 `상저하고`…하반기 전세불안 영향</t>
+          <t>정부, 코로나 피해업종 구제…"항만 사용료·해운지원 연장"</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2021.12.30 17:08</t>
+          <t>2021.12.30 17:40</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>은행 가계대출 영업 본격 재개 예고, 관리는 더 깐깐해진다</t>
+          <t>하이투자증권, 홍원식 신임 대표이사 선임</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2021.12.30 17:08</t>
+          <t>2021.12.30 17:40</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>한은 충북본부, 설 앞두고 특별자금 150억원 지원</t>
+          <t>"코로나 봉쇄 따른 삼성 시안공장 감산…메모리 공급사 주가에는 긍정적 영향"</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2021.12.30 17:07</t>
+          <t>2021.12.30 17:40</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>범어4동 '가로주택정비 vs 재개발' 주민들 신경전…'난개발' 우려까지</t>
+          <t>이퓨쳐, 중견기업→벤처기업부 변경</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2021.12.30 17:07</t>
+          <t>2021.12.30 17:40</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>운영 중단 위기에 이은 이사장 사임까지 ‘혼수상태’ 패션연…관리기관은 나몰라라</t>
+          <t>"제2의 메종키츠네 찾아라"···해외 패션 키운다</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2021.12.30 17:07</t>
+          <t>2021.12.30 17:40</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>‘금융위원장 미션’ 언급한 고승범 “부동산으로 자본 안흐르게”</t>
+          <t>'백척간두' 신년사에 드러난 위기의식…경제단체 "규제혁파" 한목소리</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2021.12.30 17:07</t>
+          <t>2021.12.30 17:39</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>[기자의 눈] 기업 현실 무시한 중대재해법</t>
+          <t>진안군, 명품사과 첫 베트남 수출…내년 1월 추가수출도</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2021.12.30 17:07</t>
+          <t>2021.12.30 17:39</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>[MK라씨로] 외국인, 메타버스·VR 관련주 보유 늘려</t>
+          <t>BN그룹 3명, 무역의날 대통령·산자부장관 표창 ‘영예’</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2021.12.30 17:06</t>
+          <t>2021.12.30 17:39</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>국토부 "집값 안정세 자신 못한다"…대구·동두천 규제지역 유지</t>
+          <t>포스코인터, 전기차 부품까지 영토 확장</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2021.12.30 17:05</t>
+          <t>2021.12.30 17:39</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>국토부, 조정대상지역 등 현행 규제지역 유지…"내년 상반기 재논의"</t>
+          <t>SK하이닉스, 인텔 낸드 1단계 인수</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2021.12.30 17:05</t>
+          <t>2021.12.30 17:39</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>[Bull&amp;Bear;] 전기차 모멘텀 타고 디아이씨 급등</t>
+          <t>코레일, '금촌역 에스컬레이터 사고' 사과..."안전 강화"</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2021.12.30 17:05</t>
+          <t>2021.12.30 17:38</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>[인사] 한국가스안전공사</t>
+          <t>[단독] 현대차그룹이 GBC 용지 앞 아셈타워 사무실 빌린 까닭은</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2021.12.30 17:05</t>
+          <t>2021.12.30 17:38</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2050 절반 해외직구 이용... 이용금액 4조9000억 '사상 최대'</t>
+          <t>허진수, SPC 사장 승진…3세 경영 본격화</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>2021.12.30 17:05</t>
+          <t>2021.12.30 17:38</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>[표] 주요 증시 지표 (12월 30일)</t>
+          <t>고려아연 "그린수소 1위로 가자"</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2021.12.30 17:05</t>
+          <t>2021.12.30 17:38</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>'오세훈표 신속 재건축' 판 커졌다…압구정 등 18곳 추진(종합)</t>
+          <t>운수·화학·백화점, 코로나 2년 '반전스토리'</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2021.12.30 17:04</t>
+          <t>2021.12.30 17:38</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>동원F&amp;B;도 컵커피 가격 인상…hy 야쿠르트 가격도 오른다</t>
+          <t>김현 전북문화관광재단 관광본부장, GSTC 지명이사 됐다</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>2021.12.30 17:04</t>
+          <t>2021.12.30 17:38</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>레뱅드매일, 임인년 호랑이 와인 세트 출시</t>
+          <t>거래소, 2021년 증권·파생상품시장 폐장식 개최</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2021.12.30 17:04</t>
+          <t>2021.12.30 17:38</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>개미 울리는 물적분할에 고승범 "법적 측면 포함 대책 검토"</t>
+          <t>한화솔루션, 삼성전기 통신모듈사업 인수</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2021.12.30 17:04</t>
+          <t>2021.12.30 17:38</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>美 OTT ‘쩐의전쟁’, 넷플릭스·디즈니 내년에 136조 퍼붓는다</t>
+          <t>[영상] 인증 취소에도…탤런트 출신 운영 김치업체 불법유통 적발</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2021.12.30 17:03</t>
+          <t>2021.12.30 17:37</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>미리보는 CES...글로벌 ICT 트렌드 현주소</t>
+          <t>공기청정기·프리미엄 그릇…락앤락·글라스락 변신 경쟁</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>2021.12.30 17:03</t>
+          <t>2021.12.30 17:37</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>환경부, 폐교 활용 환경체험교육관 추진…2024년 개관</t>
+          <t>중기부, 851곳 해외인증 지원해 수출 도왔다</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2021.12.30 17:03</t>
+          <t>2021.12.30 17:37</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>최종 임상 단계 진입한 백신 후보물질은 44종</t>
+          <t>[포토] 불 밝힌 컨테이너선…코로나에도 수출 사상 최대</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2021.12.30 17:03</t>
+          <t>2021.12.30 17:37</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>김지형 삼성준법위원장 "위원회는 백신…아프고 싫어도 맞아야"</t>
+          <t>[포토] 박영선·김기문 '인재육성' 의기투합</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2021.12.30 17:03</t>
+          <t>2021.12.30 17:37</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>골프존문화재단, 11년 연속 지역 소외계층 아동 3,800여 명에게 연말 선물 전달</t>
+          <t>"계약서 하나 때문에 발목 잡혀"…토종 골프웨어에 무슨 일이</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2021.12.30 17:03</t>
+          <t>2021.12.30 17:37</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>코스피 마지막 거래일 2,970선 마감‥삼성전자 이틀째 하락 흐름</t>
+          <t>삼성전자만 11조…연기금, 올해 24조 팔았다</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>2021.12.30 17:02</t>
+          <t>2021.12.30 17:37</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>국토부, 현행 규제지역 유지... 내년 상반기 해제·신규지정 재논의</t>
+          <t>DGB금융그룹 통합사옥 전광판 공개, "서울 한복판 명물로"</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>2021.12.30 17:02</t>
+          <t>2021.12.30 17:37</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>[마켓인]국민연금 10월 말 수익률 7.63%…해외주식 27%</t>
+          <t>금감원, 감독총괄국에 '컨트롤타워' 부여...부서장 90% 교체</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2021.12.30 17:02</t>
+          <t>2021.12.30 17:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>금감원, 조직 대수술…'디지털금융' 조직·인력 대폭 확충</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>금감원, 사전 예방적 감독체계 강화…부서장 대거 물갈이</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>반려견과 별다방 간다… 펫파크 품은 스타벅스 '더북한강R점'</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>[신년사] 김광수 은행연합회 회장</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>SK하이닉스, '특별 성과급' 쏜다…과장급 직원 얼마 받을까?</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>“12억 넘으면 양도세 폭탄?”…내년 상가주택 세금주의보</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>금감원, 대규모 조직 개편… 부서장 90% 교체</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>위드코로나에 휘청… 오미크론에 반등한 진단키트주</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>공정위, 올해 공시의무 위반 131건 확인…9억1193만원 과태료 부과</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>세븐럭 카지노, 2023년 1월 서울드래곤시티호텔 개장</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>에스원 '유쾌한 콘텐츠'로 글로벌 MZ세대 잡았다</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>[기업] 삼성전자, 내년 미국서 '비스포크' 라인업 확대</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>[기업] 샘표, 비대면 '요리하는 종무식' 진행</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>[기업] 주민등록등본 편의점서 출력...세븐일레븐, 출력서비스 순차 도입</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>[기업] LG전자 물 없는 CO₂세탁기 상업용으로 개발</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>‘삼바 개미’ 들었다 놓은 인수설 [3분 국내주식]</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>대성미생물, 조달청과 동물용 백신 28억 규모 공급 계약</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>3년 간 공회전 끝낼까...1월 2주 중고차 시장 개방 여부 심의</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>나노기술로 고막·어깨힘줄 등 재생할 치료제 나온다</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>'뜨거운 출발→힘빠진 마감'…한눈에 보는 '삼천피' 2021 증시</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>도시공유플랫폼X트위니, '자율주행 무인판매기' 만든다</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>권병세 유틸렉스 대표, 보유 주식 일부 블록딜…"개인채무 상환 목적"</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>"임직원 여러분 고생하셨습니다" 올해도 랜선 종무식</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>갤러리아 광교, 베르사유 건축상 쇼핑몰부문 ‘세계1위’</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>SPC 장남 허진수, 사장 승진… 해외진출 박차</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>아워홈 1년만에 흑자전환… 구지은의 혁신 통했다</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>유럽 천연가스 대란에 비료株 뛰네</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>배달·비건 확 키웠다… 코로나 위기 속 돌파구 찾은 ‘K 먹거리’</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>[인사] DGB금융그룹</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>The market loved the metaverse in 2021</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>포스코그룹, CES 2022 참가…13개 벤처기업과 공동 전시관 마련(종합)</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>'음파 쐬니 잠이 솔솔'..에보소닉, 슬립테크 배게 CES 론칭</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>SPC 그룹 글로벌 부문 인사…장남 허진수 사장 승진</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>코웨이, 국내 최초 '물맛품질인증' 획득…"정수기 물맛 인정받아"</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>작년 울산 기업활동 지표 전반적 악화…"코로나 직격탄 영향"</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>'아듀 2021' 거래소, 폐장식…"코스피 사상 최고치 성과"</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>잠잠하던 '국산신약' 올해는 풍년… 4개 추가돼 34호까지</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>올해 증시 '폐장'…코스피 '삼천피' 실패 2970선 마감</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>[인사] 금융감독원</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>부동산 규제지역 유지…국토부 "내년 상반기 재논의"</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:31</t>
         </is>
       </c>
     </row>
